--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10059" uniqueCount="2696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10068" uniqueCount="2697">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -8135,6 +8135,9 @@
   </si>
   <si>
     <t>loja.ods_compra_entrega_liberacao</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_transacao</t>
   </si>
 </sst>
 </file>
@@ -9419,10 +9422,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11101,10 +11104,10 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11370,12 +11373,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -13367,13 +13370,13 @@
         <v>536</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>1131</v>
+        <v>84</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>398</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>1132</v>
+        <v>2696</v>
       </c>
       <c r="J65" s="35"/>
     </row>
@@ -13397,13 +13400,13 @@
         <v>536</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H66" s="34" t="s">
         <v>398</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="J66" s="35"/>
     </row>
@@ -13427,13 +13430,13 @@
         <v>536</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H67" s="34" t="s">
         <v>398</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J67" s="35"/>
     </row>
@@ -13448,22 +13451,22 @@
         <v>1120</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>1138</v>
+        <v>536</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H68" s="34" t="s">
         <v>398</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>2486</v>
+        <v>1136</v>
       </c>
       <c r="J68" s="35"/>
     </row>
@@ -13490,10 +13493,10 @@
         <v>1139</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>1140</v>
+        <v>2486</v>
       </c>
       <c r="J69" s="35"/>
     </row>
@@ -13514,16 +13517,16 @@
         <v>1137</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="H70" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="J70" s="35"/>
     </row>
@@ -13550,10 +13553,10 @@
         <v>1142</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="I71" s="38" t="s">
-        <v>1147</v>
+        <v>215</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>1143</v>
       </c>
       <c r="J71" s="35"/>
     </row>
@@ -13574,16 +13577,16 @@
         <v>1137</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="J72" s="35"/>
     </row>
@@ -13610,10 +13613,10 @@
         <v>1145</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J73" s="35"/>
     </row>
@@ -13634,16 +13637,16 @@
         <v>1137</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="J74" s="35"/>
     </row>
@@ -13667,13 +13670,13 @@
         <v>1149</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="J75" s="35"/>
     </row>
@@ -13697,7 +13700,7 @@
         <v>1149</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>215</v>
@@ -13705,9 +13708,7 @@
       <c r="I76" s="34" t="s">
         <v>1153</v>
       </c>
-      <c r="J76" s="35" t="s">
-        <v>102</v>
-      </c>
+      <c r="J76" s="35"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="32" t="s">
@@ -13729,7 +13730,7 @@
         <v>1149</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>215</v>
@@ -13758,18 +13759,20 @@
         <v>1137</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>1037</v>
+        <v>1149</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>1130</v>
+        <v>1155</v>
       </c>
       <c r="H78" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>531</v>
-      </c>
-      <c r="J78" s="35"/>
+        <v>1153</v>
+      </c>
+      <c r="J78" s="35" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="32" t="s">
@@ -13791,13 +13794,13 @@
         <v>1037</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H79" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I79" s="34" t="s">
-        <v>1156</v>
+        <v>531</v>
       </c>
       <c r="J79" s="35"/>
     </row>
@@ -13821,13 +13824,13 @@
         <v>1037</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J80" s="35"/>
     </row>
@@ -13851,13 +13854,13 @@
         <v>1037</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>1158</v>
+        <v>1126</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J81" s="35"/>
     </row>
@@ -13881,13 +13884,13 @@
         <v>1037</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>1019</v>
+        <v>1158</v>
       </c>
       <c r="H82" s="34" t="s">
         <v>215</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J82" s="35"/>
     </row>
@@ -13902,22 +13905,22 @@
         <v>1120</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>1161</v>
+        <v>1137</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>1162</v>
+        <v>1037</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>1163</v>
+        <v>1019</v>
       </c>
       <c r="H83" s="34" t="s">
-        <v>1165</v>
+        <v>215</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="J83" s="35"/>
     </row>
@@ -13941,7 +13944,7 @@
         <v>1162</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H84" s="34" t="s">
         <v>1165</v>
@@ -13949,9 +13952,7 @@
       <c r="I84" s="34" t="s">
         <v>1164</v>
       </c>
-      <c r="J84" s="35" t="s">
-        <v>102</v>
-      </c>
+      <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="32" t="s">
@@ -13970,18 +13971,20 @@
         <v>1161</v>
       </c>
       <c r="F85" s="34" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H85" s="34" t="s">
         <v>1165</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J85" s="35"/>
+        <v>1164</v>
+      </c>
+      <c r="J85" s="35" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="32" t="s">
@@ -14003,13 +14006,13 @@
         <v>1167</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>323</v>
+        <v>1168</v>
       </c>
       <c r="H86" s="34" t="s">
         <v>1165</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J86" s="35"/>
     </row>
@@ -14033,13 +14036,13 @@
         <v>1167</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>1171</v>
+        <v>323</v>
       </c>
       <c r="H87" s="34" t="s">
         <v>1165</v>
       </c>
       <c r="I87" s="34" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="J87" s="35"/>
     </row>
@@ -14063,47 +14066,45 @@
         <v>1167</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H88" s="34" t="s">
         <v>1165</v>
       </c>
       <c r="I88" s="34" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J88" s="35"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I89" s="34" t="s">
         <v>1174</v>
       </c>
-      <c r="J88" s="35"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="15" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="I89" s="16" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>102</v>
-      </c>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="15" t="s">
@@ -14125,7 +14126,7 @@
         <v>1175</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H90" s="16" t="s">
         <v>398</v>
@@ -14138,158 +14139,160 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="16" t="s">
         <v>1002</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="16" t="s">
         <v>1120</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D91" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E91" s="16" t="s">
         <v>1161</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="16" t="s">
         <v>1175</v>
       </c>
-      <c r="G91" s="34" t="s">
+      <c r="G91" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G92" s="34" t="s">
         <v>1179</v>
       </c>
-      <c r="H91" s="34" t="s">
+      <c r="H92" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I92" s="34" t="s">
         <v>1180</v>
       </c>
-      <c r="J91" s="35"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="15" t="s">
+      <c r="J92" s="35"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B93" s="16" t="s">
         <v>1002</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>1120</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D93" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E93" s="16" t="s">
         <v>1161</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F93" s="16" t="s">
         <v>1175</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G93" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H93" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="I92" s="16" t="s">
+      <c r="I93" s="16" t="s">
         <v>1180</v>
       </c>
-      <c r="J92" s="17" t="s">
+      <c r="J93" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="32" t="s">
+    <row r="94" spans="1:10">
+      <c r="A94" s="32" t="s">
         <v>1119</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B94" s="34" t="s">
         <v>1002</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C94" s="34" t="s">
         <v>1120</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D94" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="E93" s="34" t="s">
+      <c r="E94" s="34" t="s">
         <v>1161</v>
       </c>
-      <c r="F93" s="34" t="s">
+      <c r="F94" s="34" t="s">
         <v>1175</v>
       </c>
-      <c r="G93" s="34" t="s">
+      <c r="G94" s="34" t="s">
         <v>1182</v>
       </c>
-      <c r="H93" s="34" t="s">
+      <c r="H94" s="34" t="s">
         <v>1069</v>
       </c>
-      <c r="I93" s="34" t="s">
+      <c r="I94" s="34" t="s">
         <v>1183</v>
       </c>
-      <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="15" t="s">
+      <c r="J94" s="35"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B95" s="16" t="s">
         <v>1002</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C95" s="16" t="s">
         <v>1120</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D95" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E95" s="16" t="s">
         <v>1184</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F95" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H95" s="16" t="s">
         <v>1069</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="I95" s="16" t="s">
         <v>1187</v>
       </c>
-      <c r="J94" s="17" t="s">
+      <c r="J95" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="32" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>879</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F95" s="34" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G95" s="34" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H95" s="34" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I95" s="34" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="32" t="s">
@@ -14311,71 +14314,69 @@
         <v>1185</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>2487</v>
+        <v>1188</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>1069</v>
       </c>
       <c r="I96" s="34" t="s">
-        <v>2488</v>
+        <v>1189</v>
       </c>
       <c r="J96" s="35"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="32" t="s">
-        <v>1190</v>
+        <v>1119</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+        <v>1002</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>1184</v>
+      </c>
       <c r="F97" s="34" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>1192</v>
+        <v>2487</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>1069</v>
       </c>
       <c r="I97" s="34" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J97" s="34"/>
+        <v>2488</v>
+      </c>
+      <c r="J97" s="35"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="32" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>1196</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
       <c r="F98" s="34" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="G98" s="34" t="s">
-        <v>719</v>
+        <v>1192</v>
       </c>
       <c r="H98" s="34" t="s">
-        <v>398</v>
+        <v>1069</v>
       </c>
       <c r="I98" s="34" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J98" s="35" t="s">
-        <v>102</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="J98" s="34"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="32" t="s">
@@ -14403,7 +14404,7 @@
         <v>398</v>
       </c>
       <c r="I99" s="34" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="J99" s="35" t="s">
         <v>102</v>
@@ -14435,7 +14436,7 @@
         <v>398</v>
       </c>
       <c r="I100" s="34" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J100" s="35" t="s">
         <v>102</v>
@@ -14461,13 +14462,13 @@
         <v>1197</v>
       </c>
       <c r="G101" s="34" t="s">
-        <v>1201</v>
+        <v>719</v>
       </c>
       <c r="H101" s="34" t="s">
         <v>398</v>
       </c>
       <c r="I101" s="34" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J101" s="35" t="s">
         <v>102</v>
@@ -14484,22 +14485,22 @@
         <v>1195</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="I102" s="34" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="J102" s="35" t="s">
         <v>102</v>
@@ -14531,35 +14532,67 @@
         <v>215</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J103" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="17"/>
-    </row>
-    <row r="105" spans="1:10" ht="12.75">
-      <c r="A105" s="7"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="18"/>
+      <c r="A104" s="32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H104" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J104" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="1:10" ht="12.75">
+      <c r="A106" s="7"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14574,7 +14607,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -15775,7 +15808,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -16244,7 +16277,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -16883,7 +16916,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -17654,7 +17687,7 @@
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -18341,7 +18374,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -18560,7 +18593,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -19818,10 +19851,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -21476,9 +21509,9 @@
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -25414,10 +25447,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -25868,7 +25901,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -26130,7 +26163,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -26283,7 +26316,7 @@
     <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -26616,7 +26649,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -27297,7 +27330,7 @@
     <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -27867,10 +27900,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -29008,10 +29041,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -29413,9 +29446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -33046,7 +33079,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -33190,10 +33223,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -34598,7 +34631,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -35002,10 +35035,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -35753,9 +35786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P59" sqref="P59"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -41211,7 +41244,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -42912,7 +42945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -43631,9 +43664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -44229,7 +44262,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -44715,9 +44748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10068" uniqueCount="2697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10074" uniqueCount="2699">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -8138,6 +8138,12 @@
   </si>
   <si>
     <t>fin.stg_sige_transacao</t>
+  </si>
+  <si>
+    <t>(DFT) PEV - Número Série</t>
+  </si>
+  <si>
+    <t>dbo.stg_pev_num_serie</t>
   </si>
 </sst>
 </file>
@@ -11375,7 +11381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
@@ -42941,11 +42947,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -43330,38 +43336,38 @@
         <v>781</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>790</v>
+        <v>2697</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>102</v>
-      </c>
+        <v>2698</v>
+      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>791</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
@@ -43374,13 +43380,13 @@
         <v>792</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>215</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -43395,13 +43401,13 @@
         <v>792</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>215</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G21" s="9"/>
     </row>
@@ -43416,13 +43422,13 @@
         <v>792</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>215</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -43443,7 +43449,7 @@
         <v>215</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>2629</v>
+        <v>796</v>
       </c>
       <c r="G23" s="9"/>
     </row>
@@ -43452,19 +43458,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>2630</v>
+        <v>780</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>2631</v>
+        <v>792</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>2632</v>
+        <v>784</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -43479,13 +43485,13 @@
         <v>2631</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -43500,13 +43506,13 @@
         <v>2631</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -43515,19 +43521,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>2639</v>
+        <v>2630</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>2638</v>
+        <v>2631</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -43542,13 +43548,13 @@
         <v>2638</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>215</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -43563,13 +43569,13 @@
         <v>2638</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>215</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -43578,19 +43584,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>799</v>
+        <v>2639</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>800</v>
+        <v>2638</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>436</v>
+        <v>2635</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>437</v>
+        <v>2642</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -43605,13 +43611,13 @@
         <v>800</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -43626,33 +43632,54 @@
         <v>800</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="27" activeTab="33"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10510" uniqueCount="2828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10525" uniqueCount="2832">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -8531,6 +8531,18 @@
   </si>
   <si>
     <t>N:\Migracao\Despesas_LN\Despesas_LN\stg_despesas_ln.dtsx</t>
+  </si>
+  <si>
+    <t>(DFT) WMS - Romaneio</t>
+  </si>
+  <si>
+    <t>dbo.stg_wms_romaneio</t>
+  </si>
+  <si>
+    <t>(DFT) Romaneio</t>
+  </si>
+  <si>
+    <t>ln.ods_wms_romaneio</t>
   </si>
 </sst>
 </file>
@@ -8970,30 +8982,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9020,6 +9008,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9338,7 +9350,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="65" t="s">
         <v>279</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -9349,7 +9361,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="25" t="s">
         <v>997</v>
       </c>
@@ -9358,7 +9370,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="25" t="s">
         <v>1203</v>
       </c>
@@ -9367,7 +9379,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="54"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="25" t="s">
         <v>1362</v>
       </c>
@@ -9376,7 +9388,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
-      <c r="A6" s="54"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="25" t="s">
         <v>1553</v>
       </c>
@@ -9385,7 +9397,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="25" t="s">
         <v>2214</v>
       </c>
@@ -9394,7 +9406,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="25" t="s">
         <v>1957</v>
       </c>
@@ -9403,7 +9415,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="25" t="s">
         <v>2227</v>
       </c>
@@ -9412,7 +9424,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="25" t="s">
         <v>801</v>
       </c>
@@ -9421,7 +9433,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
-      <c r="A11" s="55"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="25" t="s">
         <v>1479</v>
       </c>
@@ -9430,7 +9442,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="65" t="s">
         <v>285</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -9441,7 +9453,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="25" t="s">
         <v>995</v>
       </c>
@@ -9450,7 +9462,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="25" t="s">
         <v>997</v>
       </c>
@@ -9459,7 +9471,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="25" t="s">
         <v>1320</v>
       </c>
@@ -9468,7 +9480,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="25" t="s">
         <v>1362</v>
       </c>
@@ -9477,7 +9489,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="25" t="s">
         <v>1479</v>
       </c>
@@ -9486,7 +9498,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="25" t="s">
         <v>1567</v>
       </c>
@@ -9495,7 +9507,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="25" t="s">
         <v>1693</v>
       </c>
@@ -9504,7 +9516,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="25" t="s">
         <v>2227</v>
       </c>
@@ -9513,7 +9525,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
-      <c r="A21" s="55"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="52" t="s">
         <v>701</v>
       </c>
@@ -9522,7 +9534,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="65" t="s">
         <v>733</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -9533,7 +9545,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="54"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="25" t="s">
         <v>888</v>
       </c>
@@ -9542,7 +9554,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="25" t="s">
         <v>995</v>
       </c>
@@ -9551,7 +9563,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
-      <c r="A25" s="54"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="25" t="s">
         <v>1567</v>
       </c>
@@ -9560,7 +9572,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="54"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="25" t="s">
         <v>1693</v>
       </c>
@@ -9569,7 +9581,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="25" t="s">
         <v>1957</v>
       </c>
@@ -9578,7 +9590,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="25" t="s">
         <v>2227</v>
       </c>
@@ -9587,7 +9599,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="25" t="s">
         <v>2343</v>
       </c>
@@ -9596,7 +9608,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="25" t="s">
         <v>801</v>
       </c>
@@ -9616,7 +9628,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="65" t="s">
         <v>1362</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -9627,7 +9639,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="55"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="25" t="s">
         <v>1986</v>
       </c>
@@ -9636,7 +9648,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="65" t="s">
         <v>1479</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -9647,7 +9659,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="25" t="s">
         <v>1535</v>
       </c>
@@ -9656,7 +9668,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="25" t="s">
         <v>1986</v>
       </c>
@@ -9665,7 +9677,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1">
-      <c r="A37" s="55"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="25" t="s">
         <v>2016</v>
       </c>
@@ -9707,7 +9719,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="65" t="s">
         <v>2473</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -9718,7 +9730,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1">
-      <c r="A42" s="54"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="25" t="s">
         <v>1986</v>
       </c>
@@ -9727,7 +9739,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1">
-      <c r="A43" s="54"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="25" t="s">
         <v>2177</v>
       </c>
@@ -9736,7 +9748,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1">
-      <c r="A44" s="54"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="25" t="s">
         <v>2099</v>
       </c>
@@ -9745,7 +9757,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1">
-      <c r="A45" s="55"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="25" t="s">
         <v>1931</v>
       </c>
@@ -9765,7 +9777,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="65" t="s">
         <v>2016</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -9776,7 +9788,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1">
-      <c r="A48" s="55"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="25" t="s">
         <v>1418</v>
       </c>
@@ -11817,39 +11829,39 @@
     <col min="7" max="7" width="54.140625" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="68" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:10" s="60" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>705</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="58" t="s">
         <v>706</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="58" t="s">
         <v>710</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="58" t="s">
         <v>711</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="58" t="s">
         <v>708</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="58" t="s">
         <v>707</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="58" t="s">
         <v>709</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="59" t="s">
         <v>714</v>
       </c>
     </row>
@@ -14780,28 +14792,28 @@
       <c r="J97" s="50"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="72" t="s">
+      <c r="A98" s="64" t="s">
         <v>1119</v>
       </c>
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62" t="s">
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54" t="s">
         <v>2814</v>
       </c>
-      <c r="F98" s="62" t="s">
+      <c r="F98" s="54" t="s">
         <v>2815</v>
       </c>
-      <c r="G98" s="62" t="s">
+      <c r="G98" s="54" t="s">
         <v>2816</v>
       </c>
-      <c r="H98" s="62" t="s">
+      <c r="H98" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="I98" s="62" t="s">
+      <c r="I98" s="54" t="s">
         <v>2817</v>
       </c>
-      <c r="J98" s="63" t="s">
+      <c r="J98" s="55" t="s">
         <v>2818</v>
       </c>
     </row>
@@ -15391,7 +15403,7 @@
     </row>
     <row r="120" spans="1:10" ht="12.75">
       <c r="A120" s="45"/>
-      <c r="B120" s="69"/>
+      <c r="B120" s="61"/>
       <c r="C120" s="46"/>
       <c r="D120" s="46"/>
       <c r="E120" s="46"/>
@@ -15399,7 +15411,7 @@
       <c r="G120" s="46"/>
       <c r="H120" s="46"/>
       <c r="I120" s="46"/>
-      <c r="J120" s="70"/>
+      <c r="J120" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -19612,7 +19624,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="68" t="s">
         <v>279</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -19627,7 +19639,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="25" t="s">
         <v>282</v>
       </c>
@@ -19640,7 +19652,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="25" t="s">
         <v>283</v>
       </c>
@@ -19653,7 +19665,7 @@
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="68" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -19668,7 +19680,7 @@
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="31" t="s">
         <v>377</v>
       </c>
@@ -19681,7 +19693,7 @@
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="31" t="s">
         <v>432</v>
       </c>
@@ -19694,7 +19706,7 @@
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="25" t="s">
         <v>442</v>
       </c>
@@ -19722,7 +19734,7 @@
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="68" t="s">
         <v>733</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -19737,7 +19749,7 @@
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="25" t="s">
         <v>749</v>
       </c>
@@ -19750,7 +19762,7 @@
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="25" t="s">
         <v>738</v>
       </c>
@@ -19763,7 +19775,7 @@
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="25" t="s">
         <v>756</v>
       </c>
@@ -19776,7 +19788,7 @@
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="25" t="s">
         <v>762</v>
       </c>
@@ -19789,7 +19801,7 @@
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="25" t="s">
         <v>763</v>
       </c>
@@ -19802,7 +19814,7 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="25" t="s">
         <v>775</v>
       </c>
@@ -19815,7 +19827,7 @@
       <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="25" t="s">
         <v>776</v>
       </c>
@@ -19828,7 +19840,7 @@
       <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="25" t="s">
         <v>797</v>
       </c>
@@ -19856,7 +19868,7 @@
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="71" t="s">
         <v>2640</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -19871,7 +19883,7 @@
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="60"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="25" t="s">
         <v>2644</v>
       </c>
@@ -19899,7 +19911,7 @@
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="68" t="s">
         <v>888</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -19916,7 +19928,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="56"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="25" t="s">
         <v>890</v>
       </c>
@@ -19929,7 +19941,7 @@
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="31" t="s">
         <v>891</v>
       </c>
@@ -19942,7 +19954,7 @@
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="56"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="25" t="s">
         <v>892</v>
       </c>
@@ -19970,7 +19982,7 @@
       <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="68" t="s">
         <v>997</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -19985,7 +19997,7 @@
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="31" t="s">
         <v>147</v>
       </c>
@@ -19998,7 +20010,7 @@
       <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="31" t="s">
         <v>998</v>
       </c>
@@ -20011,7 +20023,7 @@
       <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="31" t="s">
         <v>999</v>
       </c>
@@ -20026,7 +20038,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="68" t="s">
         <v>1203</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -20041,7 +20053,7 @@
       <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="56"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="25" t="s">
         <v>1205</v>
       </c>
@@ -20054,7 +20066,7 @@
       <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
-      <c r="A34" s="56"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="25" t="s">
         <v>1206</v>
       </c>
@@ -20067,7 +20079,7 @@
       <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
-      <c r="A35" s="56"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="25" t="s">
         <v>1207</v>
       </c>
@@ -20080,7 +20092,7 @@
       <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
-      <c r="A36" s="56"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="25" t="s">
         <v>1208</v>
       </c>
@@ -20093,7 +20105,7 @@
       <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="68" t="s">
         <v>1320</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -20108,7 +20120,7 @@
       <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="56"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="25" t="s">
         <v>1322</v>
       </c>
@@ -20123,7 +20135,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="68" t="s">
         <v>1362</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -20138,7 +20150,7 @@
       <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="56"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="25" t="s">
         <v>1364</v>
       </c>
@@ -20166,7 +20178,7 @@
       <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="68" t="s">
         <v>1479</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -20181,7 +20193,7 @@
       <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="25" t="s">
         <v>1481</v>
       </c>
@@ -20224,7 +20236,7 @@
       <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="68" t="s">
         <v>1567</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -20239,7 +20251,7 @@
       <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
-      <c r="A47" s="56"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="25" t="s">
         <v>1569</v>
       </c>
@@ -20314,7 +20326,7 @@
       <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="68" t="s">
         <v>1986</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -20329,7 +20341,7 @@
       <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1">
-      <c r="A53" s="56"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="25" t="s">
         <v>1988</v>
       </c>
@@ -20417,7 +20429,7 @@
       <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="68" t="s">
         <v>2227</v>
       </c>
       <c r="B59" s="25" t="s">
@@ -20432,7 +20444,7 @@
       <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
-      <c r="A60" s="56"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="25" t="s">
         <v>2231</v>
       </c>
@@ -20445,7 +20457,7 @@
       <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
-      <c r="A61" s="56"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="25" t="s">
         <v>2234</v>
       </c>
@@ -20458,7 +20470,7 @@
       <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="69" t="s">
         <v>2343</v>
       </c>
       <c r="B62" s="25" t="s">
@@ -20473,7 +20485,7 @@
       <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
-      <c r="A63" s="57"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="25" t="s">
         <v>2347</v>
       </c>
@@ -20486,7 +20498,7 @@
       <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
-      <c r="A64" s="57"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="25" t="s">
         <v>2350</v>
       </c>
@@ -20501,7 +20513,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1">
-      <c r="A65" s="57"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="25" t="s">
         <v>2353</v>
       </c>
@@ -20514,7 +20526,7 @@
       <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1">
-      <c r="A66" s="57"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="25" t="s">
         <v>2356</v>
       </c>
@@ -20527,7 +20539,7 @@
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="68" t="s">
         <v>2389</v>
       </c>
       <c r="B67" s="25" t="s">
@@ -20542,7 +20554,7 @@
       <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1">
-      <c r="A68" s="56"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="25" t="s">
         <v>2391</v>
       </c>
@@ -20557,7 +20569,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1">
-      <c r="A69" s="56"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="31" t="s">
         <v>2392</v>
       </c>
@@ -20570,7 +20582,7 @@
       <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
-      <c r="A70" s="56"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="31" t="s">
         <v>2393</v>
       </c>
@@ -20585,7 +20597,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
-      <c r="A71" s="58"/>
+      <c r="A71" s="70"/>
       <c r="B71" s="36" t="s">
         <v>2394</v>
       </c>
@@ -30251,11 +30263,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -32031,29 +32043,27 @@
         <v>281</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>125</v>
+        <v>2828</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>102</v>
-      </c>
+        <v>2829</v>
+      </c>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="5" t="s">
@@ -32075,13 +32085,13 @@
         <v>124</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>102</v>
@@ -32098,24 +32108,26 @@
         <v>122</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J61" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="5" t="s">
@@ -32137,13 +32149,13 @@
         <v>130</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J62" s="9"/>
     </row>
@@ -32167,13 +32179,13 @@
         <v>130</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J63" s="9"/>
     </row>
@@ -32197,13 +32209,13 @@
         <v>130</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J64" s="9"/>
     </row>
@@ -32227,13 +32239,13 @@
         <v>130</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J65" s="9"/>
     </row>
@@ -32257,13 +32269,13 @@
         <v>130</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J66" s="9"/>
     </row>
@@ -32287,13 +32299,13 @@
         <v>130</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J67" s="9"/>
     </row>
@@ -32317,13 +32329,13 @@
         <v>130</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J68" s="9"/>
     </row>
@@ -32338,22 +32350,22 @@
         <v>122</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J69" s="9"/>
     </row>
@@ -32377,13 +32389,13 @@
         <v>148</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J70" s="9"/>
     </row>
@@ -32407,13 +32419,13 @@
         <v>148</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J71" s="9"/>
     </row>
@@ -32437,13 +32449,13 @@
         <v>148</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J72" s="9"/>
     </row>
@@ -32467,13 +32479,13 @@
         <v>148</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J73" s="9"/>
     </row>
@@ -32497,13 +32509,13 @@
         <v>148</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J74" s="9"/>
     </row>
@@ -32518,22 +32530,22 @@
         <v>122</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J75" s="9"/>
     </row>
@@ -32548,22 +32560,22 @@
         <v>122</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J76" s="9"/>
     </row>
@@ -32587,13 +32599,13 @@
         <v>166</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J77" s="9"/>
     </row>
@@ -32617,13 +32629,13 @@
         <v>166</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J78" s="9"/>
     </row>
@@ -32647,13 +32659,13 @@
         <v>166</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J79" s="9"/>
     </row>
@@ -32668,22 +32680,22 @@
         <v>122</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J80" s="9"/>
     </row>
@@ -32698,22 +32710,22 @@
         <v>122</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J81" s="9"/>
     </row>
@@ -32737,13 +32749,13 @@
         <v>180</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J82" s="9"/>
     </row>
@@ -32758,22 +32770,22 @@
         <v>122</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J83" s="9"/>
     </row>
@@ -32788,22 +32800,22 @@
         <v>122</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J84" s="9"/>
     </row>
@@ -32827,13 +32839,13 @@
         <v>190</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J85" s="9"/>
     </row>
@@ -32857,13 +32869,13 @@
         <v>190</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J86" s="9"/>
     </row>
@@ -32887,13 +32899,13 @@
         <v>190</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J87" s="9"/>
     </row>
@@ -32917,13 +32929,13 @@
         <v>190</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J88" s="9"/>
     </row>
@@ -32938,22 +32950,22 @@
         <v>122</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J89" s="9"/>
     </row>
@@ -32977,13 +32989,13 @@
         <v>202</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J90" s="9"/>
     </row>
@@ -33007,13 +33019,13 @@
         <v>202</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J91" s="9"/>
     </row>
@@ -33043,7 +33055,7 @@
         <v>6</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>2615</v>
+        <v>208</v>
       </c>
       <c r="J92" s="9"/>
     </row>
@@ -33058,48 +33070,54 @@
         <v>122</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>2615</v>
+      </c>
+      <c r="J93" s="9"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J93" s="9"/>
-    </row>
-    <row r="94" spans="1:10" s="44" customFormat="1">
-      <c r="A94" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="G94" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="H94" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="I94" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="J94" s="43"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:10" s="44" customFormat="1">
       <c r="A95" s="41" t="s">
@@ -33112,16 +33130,16 @@
       <c r="D95" s="42"/>
       <c r="E95" s="42"/>
       <c r="F95" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H95" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J95" s="43"/>
     </row>
@@ -33139,13 +33157,13 @@
         <v>233</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H96" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J96" s="43"/>
     </row>
@@ -33163,13 +33181,13 @@
         <v>233</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H97" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J97" s="43"/>
     </row>
@@ -33187,13 +33205,13 @@
         <v>233</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H98" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I98" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J98" s="43"/>
     </row>
@@ -33211,13 +33229,13 @@
         <v>233</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H99" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I99" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J99" s="43"/>
     </row>
@@ -33235,13 +33253,13 @@
         <v>233</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H100" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I100" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J100" s="43"/>
     </row>
@@ -33259,13 +33277,13 @@
         <v>233</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H101" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I101" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J101" s="43"/>
     </row>
@@ -33280,16 +33298,16 @@
       <c r="D102" s="42"/>
       <c r="E102" s="42"/>
       <c r="F102" s="42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H102" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I102" s="42" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J102" s="43"/>
     </row>
@@ -33307,13 +33325,13 @@
         <v>231</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H103" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I103" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J103" s="43"/>
     </row>
@@ -33328,16 +33346,16 @@
       <c r="D104" s="42"/>
       <c r="E104" s="42"/>
       <c r="F104" s="42" t="s">
-        <v>2595</v>
+        <v>231</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>2596</v>
+        <v>237</v>
       </c>
       <c r="H104" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I104" s="42" t="s">
-        <v>2597</v>
+        <v>236</v>
       </c>
       <c r="J104" s="43"/>
     </row>
@@ -33355,13 +33373,13 @@
         <v>2595</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="H105" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I105" s="42" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="J105" s="43"/>
     </row>
@@ -33379,13 +33397,13 @@
         <v>2595</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="H106" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I106" s="42" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="J106" s="43"/>
     </row>
@@ -33403,13 +33421,13 @@
         <v>2595</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>2612</v>
+        <v>2600</v>
       </c>
       <c r="H107" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I107" s="42" t="s">
-        <v>2613</v>
+        <v>2601</v>
       </c>
       <c r="J107" s="43"/>
     </row>
@@ -33424,16 +33442,16 @@
       <c r="D108" s="42"/>
       <c r="E108" s="42"/>
       <c r="F108" s="42" t="s">
-        <v>238</v>
+        <v>2595</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>239</v>
+        <v>2612</v>
       </c>
       <c r="H108" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I108" s="42" t="s">
-        <v>240</v>
+        <v>2613</v>
       </c>
       <c r="J108" s="43"/>
     </row>
@@ -33448,16 +33466,16 @@
       <c r="D109" s="42"/>
       <c r="E109" s="42"/>
       <c r="F109" s="42" t="s">
-        <v>238</v>
+        <v>2595</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>241</v>
+        <v>2830</v>
       </c>
       <c r="H109" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I109" s="42" t="s">
-        <v>242</v>
+        <v>2831</v>
       </c>
       <c r="J109" s="43"/>
     </row>
@@ -33475,13 +33493,13 @@
         <v>238</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H110" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I110" s="42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J110" s="43"/>
     </row>
@@ -33499,13 +33517,13 @@
         <v>238</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H111" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I111" s="42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J111" s="43"/>
     </row>
@@ -33523,13 +33541,13 @@
         <v>238</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H112" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I112" s="42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J112" s="43"/>
     </row>
@@ -33544,16 +33562,16 @@
       <c r="D113" s="42"/>
       <c r="E113" s="42"/>
       <c r="F113" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H113" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I113" s="42" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J113" s="43"/>
     </row>
@@ -33568,16 +33586,16 @@
       <c r="D114" s="42"/>
       <c r="E114" s="42"/>
       <c r="F114" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="H114" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I114" s="42" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J114" s="43"/>
     </row>
@@ -33595,13 +33613,13 @@
         <v>249</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H115" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I115" s="42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J115" s="43"/>
     </row>
@@ -33619,13 +33637,13 @@
         <v>249</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="H116" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J116" s="43"/>
     </row>
@@ -33643,13 +33661,13 @@
         <v>249</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="H117" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J117" s="43"/>
     </row>
@@ -33667,13 +33685,13 @@
         <v>249</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H118" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J118" s="43"/>
     </row>
@@ -33691,17 +33709,15 @@
         <v>249</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="H119" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="J119" s="43" t="s">
-        <v>102</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="J119" s="43"/>
     </row>
     <row r="120" spans="1:10" s="44" customFormat="1">
       <c r="A120" s="41" t="s">
@@ -33714,16 +33730,16 @@
       <c r="D120" s="42"/>
       <c r="E120" s="42"/>
       <c r="F120" s="42" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H120" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J120" s="43"/>
     </row>
@@ -33732,46 +33748,48 @@
         <v>0</v>
       </c>
       <c r="B121" s="42" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="C121" s="42"/>
       <c r="D121" s="42"/>
       <c r="E121" s="42"/>
       <c r="F121" s="42" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H121" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="J121" s="43"/>
+        <v>261</v>
+      </c>
+      <c r="J121" s="43" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="122" spans="1:10" s="44" customFormat="1">
       <c r="A122" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="C122" s="42"/>
       <c r="D122" s="42"/>
       <c r="E122" s="42"/>
       <c r="F122" s="42" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H122" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>2594</v>
+        <v>262</v>
       </c>
       <c r="J122" s="43"/>
     </row>
@@ -33789,13 +33807,13 @@
         <v>266</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H123" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J123" s="43"/>
     </row>
@@ -33813,13 +33831,13 @@
         <v>266</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H124" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>273</v>
+        <v>2594</v>
       </c>
       <c r="J124" s="43"/>
     </row>
@@ -33834,44 +33852,92 @@
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
       <c r="F125" s="42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H125" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I125" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J125" s="43"/>
+    </row>
+    <row r="126" spans="1:10" s="44" customFormat="1">
+      <c r="A126" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G126" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="H126" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I126" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J126" s="43"/>
+    </row>
+    <row r="127" spans="1:10" s="44" customFormat="1">
+      <c r="A127" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G127" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="H127" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I127" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="J125" s="43" t="s">
+      <c r="J127" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="7" t="s">
+    <row r="128" spans="1:10">
+      <c r="A128" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G128" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H128" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="I126" s="8" t="s">
+      <c r="I128" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J126" s="10"/>
+      <c r="J128" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -36581,10 +36647,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -37338,7 +37404,7 @@
       <c r="H29" s="49" t="s">
         <v>1069</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="56" t="s">
         <v>2732</v>
       </c>
       <c r="J29" s="50"/>
@@ -37838,7 +37904,7 @@
       <c r="B49" s="42"/>
       <c r="C49" s="49"/>
       <c r="D49" s="49"/>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="53" t="s">
         <v>2827</v>
       </c>
       <c r="F49" s="49"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10525" uniqueCount="2832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10562" uniqueCount="2842">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -8543,6 +8543,36 @@
   </si>
   <si>
     <t>ln.ods_wms_romaneio</t>
+  </si>
+  <si>
+    <t>Despesas_LN</t>
+  </si>
+  <si>
+    <t>(DFT) SKU Interno</t>
+  </si>
+  <si>
+    <t>(DFT) SKU - Departamento Interno</t>
+  </si>
+  <si>
+    <t>dbo.stg_sku_interno</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_sku_depto_interno</t>
+  </si>
+  <si>
+    <t>(SC) Estrutura Compra Ativo</t>
+  </si>
+  <si>
+    <t>(DFT) Departamento Interno</t>
+  </si>
+  <si>
+    <t>(DFT) Sku Interno</t>
+  </si>
+  <si>
+    <t>ln.ods_dom_sku_depto_interno</t>
+  </si>
+  <si>
+    <t>ln.ods_sku_interno</t>
   </si>
 </sst>
 </file>
@@ -19592,8 +19622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -30265,7 +30295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
@@ -36648,9 +36678,9 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -37873,15 +37903,6 @@
       <c r="A48" s="41" t="s">
         <v>2819</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>2825</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>2824</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>2826</v>
-      </c>
       <c r="E48" s="49" t="s">
         <v>2820</v>
       </c>
@@ -37900,10 +37921,18 @@
       <c r="J48" s="50"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="41" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>2826</v>
+      </c>
       <c r="E49" s="53" t="s">
         <v>2827</v>
       </c>
@@ -38353,11 +38382,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -39608,70 +39637,58 @@
       <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="M46" s="39"/>
+      <c r="B46" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="J47" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="M47" s="39"/>
+      <c r="B47" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>2836</v>
+      </c>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="37" t="s">
@@ -39696,13 +39713,13 @@
         <v>396</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K48" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L48" s="33" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M48" s="39"/>
     </row>
@@ -39729,17 +39746,15 @@
         <v>396</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K49" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>102</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="M49" s="39"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="37" t="s">
@@ -39764,13 +39779,13 @@
         <v>396</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K50" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L50" s="33" t="s">
-        <v>2484</v>
+        <v>403</v>
       </c>
       <c r="M50" s="39"/>
     </row>
@@ -39797,15 +39812,17 @@
         <v>396</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K51" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="M51" s="39"/>
+        <v>405</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="37" t="s">
@@ -39830,13 +39847,13 @@
         <v>396</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K52" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L52" s="33" t="s">
-        <v>410</v>
+        <v>2484</v>
       </c>
       <c r="M52" s="39"/>
     </row>
@@ -39863,13 +39880,13 @@
         <v>396</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K53" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L53" s="33" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M53" s="39"/>
     </row>
@@ -39896,13 +39913,13 @@
         <v>396</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K54" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L54" s="33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M54" s="39"/>
     </row>
@@ -39929,13 +39946,13 @@
         <v>396</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K55" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L55" s="33" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M55" s="39"/>
     </row>
@@ -39962,13 +39979,13 @@
         <v>396</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K56" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L56" s="33" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M56" s="39"/>
     </row>
@@ -39995,13 +40012,13 @@
         <v>396</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K57" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M57" s="39"/>
     </row>
@@ -40028,13 +40045,13 @@
         <v>396</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K58" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M58" s="39"/>
     </row>
@@ -40061,13 +40078,13 @@
         <v>396</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K59" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>2616</v>
+        <v>420</v>
       </c>
       <c r="M59" s="39"/>
     </row>
@@ -40091,16 +40108,16 @@
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>2677</v>
+        <v>396</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K60" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L60" s="33" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M60" s="39"/>
     </row>
@@ -40124,16 +40141,16 @@
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33" t="s">
-        <v>2677</v>
+        <v>396</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>2679</v>
+        <v>425</v>
       </c>
       <c r="K61" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L61" s="33" t="s">
-        <v>2678</v>
+        <v>2616</v>
       </c>
       <c r="M61" s="39"/>
     </row>
@@ -40160,13 +40177,13 @@
         <v>2677</v>
       </c>
       <c r="J62" s="33" t="s">
-        <v>2680</v>
+        <v>421</v>
       </c>
       <c r="K62" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L62" s="33" t="s">
-        <v>2681</v>
+        <v>422</v>
       </c>
       <c r="M62" s="39"/>
     </row>
@@ -40193,13 +40210,13 @@
         <v>2677</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="K63" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>2683</v>
+        <v>2678</v>
       </c>
       <c r="M63" s="39"/>
     </row>
@@ -40226,13 +40243,13 @@
         <v>2677</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="K64" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L64" s="33" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="M64" s="39"/>
     </row>
@@ -40256,16 +40273,16 @@
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33" t="s">
-        <v>426</v>
+        <v>2677</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>427</v>
+        <v>2682</v>
       </c>
       <c r="K65" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>428</v>
+        <v>2683</v>
       </c>
       <c r="M65" s="39"/>
     </row>
@@ -40289,16 +40306,16 @@
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="33" t="s">
-        <v>429</v>
+        <v>2677</v>
       </c>
       <c r="J66" s="33" t="s">
-        <v>430</v>
+        <v>2684</v>
       </c>
       <c r="K66" s="33" t="s">
         <v>398</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>431</v>
+        <v>2685</v>
       </c>
       <c r="M66" s="39"/>
     </row>
@@ -40313,25 +40330,25 @@
         <v>380</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
       <c r="I67" s="33" t="s">
-        <v>2686</v>
+        <v>426</v>
       </c>
       <c r="J67" s="33" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="L67" s="33" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="M67" s="39"/>
     </row>
@@ -40346,25 +40363,25 @@
         <v>380</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="33" t="s">
-        <v>2686</v>
+        <v>429</v>
       </c>
       <c r="J68" s="33" t="s">
-        <v>2679</v>
+        <v>430</v>
       </c>
       <c r="K68" s="33" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>2687</v>
+        <v>431</v>
       </c>
       <c r="M68" s="39"/>
     </row>
@@ -40391,13 +40408,13 @@
         <v>2686</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>2680</v>
+        <v>473</v>
       </c>
       <c r="K69" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>2688</v>
+        <v>474</v>
       </c>
       <c r="M69" s="39"/>
     </row>
@@ -40424,13 +40441,13 @@
         <v>2686</v>
       </c>
       <c r="J70" s="33" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="K70" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="M70" s="39"/>
     </row>
@@ -40457,13 +40474,13 @@
         <v>2686</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="K71" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="M71" s="39"/>
     </row>
@@ -40487,16 +40504,16 @@
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
       <c r="I72" s="33" t="s">
-        <v>450</v>
+        <v>2686</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>451</v>
+        <v>2682</v>
       </c>
       <c r="K72" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>452</v>
+        <v>2689</v>
       </c>
       <c r="M72" s="39"/>
     </row>
@@ -40520,16 +40537,16 @@
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
       <c r="I73" s="33" t="s">
-        <v>450</v>
+        <v>2686</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>453</v>
+        <v>2684</v>
       </c>
       <c r="K73" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>454</v>
+        <v>2690</v>
       </c>
       <c r="M73" s="39"/>
     </row>
@@ -40556,13 +40573,13 @@
         <v>450</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K74" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M74" s="39"/>
     </row>
@@ -40589,13 +40606,13 @@
         <v>450</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K75" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M75" s="39"/>
     </row>
@@ -40619,16 +40636,16 @@
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
       <c r="I76" s="33" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J76" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K76" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L76" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M76" s="39"/>
     </row>
@@ -40652,16 +40669,16 @@
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
       <c r="I77" s="33" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K77" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M77" s="39"/>
     </row>
@@ -40688,13 +40705,13 @@
         <v>458</v>
       </c>
       <c r="J78" s="33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K78" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>2485</v>
+        <v>460</v>
       </c>
       <c r="M78" s="39"/>
     </row>
@@ -40721,13 +40738,13 @@
         <v>458</v>
       </c>
       <c r="J79" s="33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K79" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>2617</v>
+        <v>461</v>
       </c>
       <c r="M79" s="39"/>
     </row>
@@ -40754,13 +40771,13 @@
         <v>458</v>
       </c>
       <c r="J80" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K80" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>464</v>
+        <v>2485</v>
       </c>
       <c r="M80" s="39"/>
     </row>
@@ -40787,13 +40804,13 @@
         <v>458</v>
       </c>
       <c r="J81" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K81" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>465</v>
+        <v>2617</v>
       </c>
       <c r="M81" s="39"/>
     </row>
@@ -40820,13 +40837,13 @@
         <v>458</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K82" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M82" s="39"/>
     </row>
@@ -40853,13 +40870,13 @@
         <v>458</v>
       </c>
       <c r="J83" s="33" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K83" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M83" s="39"/>
     </row>
@@ -40886,17 +40903,15 @@
         <v>458</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K84" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>2618</v>
-      </c>
-      <c r="M84" s="39" t="s">
-        <v>102</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M84" s="39"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="37" t="s">
@@ -40921,17 +40936,15 @@
         <v>458</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K85" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>2619</v>
-      </c>
-      <c r="M85" s="39" t="s">
-        <v>102</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M85" s="39"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="37" t="s">
@@ -40956,15 +40969,17 @@
         <v>458</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K86" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="M86" s="39"/>
+        <v>2618</v>
+      </c>
+      <c r="M86" s="39" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="37" t="s">
@@ -40989,15 +41004,17 @@
         <v>458</v>
       </c>
       <c r="J87" s="33" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K87" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="M87" s="39"/>
+        <v>2619</v>
+      </c>
+      <c r="M87" s="39" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="37" t="s">
@@ -41019,16 +41036,16 @@
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="K88" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M88" s="39"/>
     </row>
@@ -41052,16 +41069,16 @@
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="J89" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K89" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L89" s="33" t="s">
-        <v>2486</v>
+        <v>474</v>
       </c>
       <c r="M89" s="39"/>
     </row>
@@ -41088,13 +41105,13 @@
         <v>475</v>
       </c>
       <c r="J90" s="33" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K90" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L90" s="33" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M90" s="39"/>
     </row>
@@ -41121,13 +41138,13 @@
         <v>475</v>
       </c>
       <c r="J91" s="33" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="K91" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L91" s="33" t="s">
-        <v>479</v>
+        <v>2486</v>
       </c>
       <c r="M91" s="39"/>
     </row>
@@ -41154,13 +41171,13 @@
         <v>475</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K92" s="33" t="s">
         <v>215</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M92" s="39"/>
     </row>
@@ -41187,13 +41204,13 @@
         <v>475</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K93" s="33" t="s">
-        <v>488</v>
+        <v>215</v>
       </c>
       <c r="L93" s="33" t="s">
-        <v>692</v>
+        <v>479</v>
       </c>
       <c r="M93" s="39"/>
     </row>
@@ -41202,25 +41219,31 @@
         <v>0</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+        <v>379</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>449</v>
+      </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="K94" s="33" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="L94" s="33" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="M94" s="39"/>
     </row>
@@ -41229,25 +41252,31 @@
         <v>0</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
+        <v>379</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>449</v>
+      </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="K95" s="33" t="s">
-        <v>6</v>
+        <v>488</v>
       </c>
       <c r="L95" s="33" t="s">
-        <v>439</v>
+        <v>692</v>
       </c>
       <c r="M95" s="39"/>
     </row>
@@ -41268,93 +41297,69 @@
         <v>435</v>
       </c>
       <c r="J96" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K96" s="33" t="s">
         <v>6</v>
       </c>
       <c r="L96" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="M96" s="39"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="J97" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="K97" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="M97" s="39"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="J98" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="K98" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="M96" s="39"/>
-    </row>
-    <row r="97" spans="1:13" ht="12.75">
-      <c r="A97" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="L97" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="1:13" ht="12.75">
-      <c r="A98" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="M98" s="9"/>
+      <c r="M98" s="39"/>
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" s="5" t="s">
@@ -41376,22 +41381,22 @@
         <v>483</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="L99" s="6" t="s">
-        <v>496</v>
+      <c r="L99" s="42" t="s">
+        <v>489</v>
       </c>
       <c r="M99" s="9"/>
     </row>
@@ -41424,13 +41429,13 @@
         <v>492</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M100" s="9"/>
     </row>
@@ -41463,13 +41468,13 @@
         <v>492</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M101" s="9"/>
     </row>
@@ -41493,22 +41498,22 @@
         <v>483</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M102" s="9"/>
     </row>
@@ -41532,22 +41537,22 @@
         <v>483</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M103" s="9"/>
     </row>
@@ -41580,13 +41585,13 @@
         <v>503</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M104" s="9"/>
     </row>
@@ -41601,25 +41606,31 @@
         <v>446</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+        <v>482</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="I105" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>309</v>
+        <v>497</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M105" s="9"/>
     </row>
@@ -41634,25 +41645,31 @@
         <v>446</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+        <v>482</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="I106" s="6" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="M106" s="9"/>
     </row>
@@ -41667,25 +41684,25 @@
         <v>446</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>520</v>
+        <v>309</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M107" s="9"/>
     </row>
@@ -41700,31 +41717,25 @@
         <v>446</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>525</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="6" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>398</v>
+        <v>511</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="M108" s="9"/>
     </row>
@@ -41739,31 +41750,25 @@
         <v>446</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>529</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M109" s="9"/>
     </row>
@@ -41778,31 +41783,31 @@
         <v>446</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>484</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="M110" s="9"/>
     </row>
@@ -41817,31 +41822,31 @@
         <v>446</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="M111" s="9"/>
     </row>
@@ -41874,13 +41879,13 @@
         <v>536</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M112" s="9"/>
     </row>
@@ -41913,13 +41918,13 @@
         <v>536</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M113" s="9"/>
     </row>
@@ -41952,13 +41957,13 @@
         <v>536</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M114" s="9"/>
     </row>
@@ -41991,13 +41996,13 @@
         <v>536</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M115" s="9"/>
     </row>
@@ -42030,13 +42035,13 @@
         <v>536</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M116" s="9"/>
     </row>
@@ -42069,13 +42074,13 @@
         <v>536</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M117" s="9"/>
     </row>
@@ -42108,13 +42113,13 @@
         <v>536</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>398</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M118" s="9"/>
     </row>
@@ -42147,13 +42152,13 @@
         <v>536</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>2620</v>
+        <v>552</v>
       </c>
       <c r="M119" s="9"/>
     </row>
@@ -42177,22 +42182,22 @@
         <v>534</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>511</v>
+        <v>398</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M120" s="9"/>
     </row>
@@ -42216,22 +42221,22 @@
         <v>534</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>562</v>
+        <v>2620</v>
       </c>
       <c r="M121" s="9"/>
     </row>
@@ -42261,16 +42266,16 @@
         <v>556</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>560</v>
+        <v>2837</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>563</v>
+        <v>2838</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>564</v>
+        <v>2840</v>
       </c>
       <c r="M122" s="9"/>
     </row>
@@ -42300,16 +42305,16 @@
         <v>556</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>560</v>
+        <v>2837</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>565</v>
+        <v>2839</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>566</v>
+        <v>2841</v>
       </c>
       <c r="M123" s="9"/>
     </row>
@@ -42339,16 +42344,16 @@
         <v>556</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M124" s="9"/>
     </row>
@@ -42381,13 +42386,13 @@
         <v>560</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M125" s="9"/>
     </row>
@@ -42420,13 +42425,13 @@
         <v>560</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M126" s="9"/>
     </row>
@@ -42459,13 +42464,13 @@
         <v>560</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M127" s="9"/>
     </row>
@@ -42498,7 +42503,7 @@
         <v>560</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>511</v>
@@ -42537,13 +42542,13 @@
         <v>560</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M129" s="9"/>
     </row>
@@ -42576,7 +42581,7 @@
         <v>560</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>511</v>
@@ -42615,13 +42620,13 @@
         <v>560</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M131" s="9"/>
     </row>
@@ -42654,7 +42659,7 @@
         <v>560</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>511</v>
@@ -42684,22 +42689,22 @@
         <v>534</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M133" s="9"/>
     </row>
@@ -42723,22 +42728,22 @@
         <v>534</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="M134" s="9"/>
     </row>
@@ -42762,22 +42767,22 @@
         <v>534</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="M135" s="9"/>
     </row>
@@ -42792,31 +42797,31 @@
         <v>446</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="M136" s="9"/>
     </row>
@@ -42831,31 +42836,31 @@
         <v>446</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M137" s="9"/>
     </row>
@@ -42870,31 +42875,31 @@
         <v>446</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>501</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>488</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M138" s="9"/>
     </row>
@@ -42909,25 +42914,31 @@
         <v>446</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>595</v>
+        <v>532</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+        <v>533</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>578</v>
+      </c>
       <c r="I139" s="6" t="s">
-        <v>597</v>
+        <v>503</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>357</v>
+        <v>581</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="M139" s="9"/>
     </row>
@@ -42942,25 +42953,31 @@
         <v>446</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
+        <v>583</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="I140" s="6" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="M140" s="9"/>
     </row>
@@ -42975,25 +42992,31 @@
         <v>446</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+        <v>583</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="I141" s="6" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="M141" s="9"/>
     </row>
@@ -43008,25 +43031,31 @@
         <v>446</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
+        <v>583</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I142" s="6" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>215</v>
+        <v>488</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="M142" s="9"/>
     </row>
@@ -43041,25 +43070,25 @@
         <v>446</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>611</v>
+        <v>357</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="M143" s="9"/>
     </row>
@@ -43074,25 +43103,25 @@
         <v>446</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>617</v>
+        <v>82</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="M144" s="9"/>
     </row>
@@ -43107,25 +43136,25 @@
         <v>446</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="M145" s="9"/>
     </row>
@@ -43140,25 +43169,25 @@
         <v>446</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="M146" s="9"/>
     </row>
@@ -43173,25 +43202,25 @@
         <v>446</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="K147" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="M147" s="9"/>
     </row>
@@ -43206,25 +43235,25 @@
         <v>446</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="M148" s="9"/>
     </row>
@@ -43239,25 +43268,25 @@
         <v>446</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>355</v>
+        <v>622</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="M149" s="9"/>
     </row>
@@ -43272,25 +43301,25 @@
         <v>446</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="K150" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="M150" s="9"/>
     </row>
@@ -43305,25 +43334,25 @@
         <v>446</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>364</v>
+        <v>633</v>
       </c>
       <c r="M151" s="9"/>
     </row>
@@ -43338,25 +43367,25 @@
         <v>446</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>680</v>
+        <v>634</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>2621</v>
+        <v>638</v>
       </c>
       <c r="M152" s="9"/>
     </row>
@@ -43371,25 +43400,25 @@
         <v>446</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>656</v>
+        <v>355</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="M153" s="9"/>
     </row>
@@ -43404,25 +43433,25 @@
         <v>446</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>682</v>
+        <v>643</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="M154" s="9"/>
     </row>
@@ -43437,25 +43466,25 @@
         <v>446</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>215</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>665</v>
+        <v>364</v>
       </c>
       <c r="M155" s="9"/>
     </row>
@@ -43470,25 +43499,25 @@
         <v>446</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>215</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>669</v>
+        <v>2621</v>
       </c>
       <c r="M156" s="9"/>
     </row>
@@ -43503,25 +43532,25 @@
         <v>446</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="M157" s="9"/>
     </row>
@@ -43536,25 +43565,25 @@
         <v>446</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="M158" s="9"/>
     </row>
@@ -43569,31 +43598,25 @@
         <v>446</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>689</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
       <c r="I159" s="6" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>488</v>
+        <v>215</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="M159" s="9"/>
     </row>
@@ -43608,198 +43631,336 @@
         <v>446</v>
       </c>
       <c r="D160" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" spans="1:13" ht="12.75">
+      <c r="A161" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="M161" s="9"/>
+    </row>
+    <row r="162" spans="1:13" ht="12.75">
+      <c r="A162" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="M162" s="9"/>
+    </row>
+    <row r="163" spans="1:13" ht="12.75">
+      <c r="A163" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F163" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="G160" s="6" t="s">
+      <c r="G163" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="M163" s="9"/>
+    </row>
+    <row r="164" spans="1:13" ht="12.75">
+      <c r="A164" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H160" s="6" t="s">
+      <c r="H164" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="I160" s="6" t="s">
+      <c r="I164" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="J160" s="6" t="s">
+      <c r="J164" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K164" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="L160" s="6" t="s">
+      <c r="L164" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="M160" s="9"/>
-    </row>
-    <row r="161" spans="1:13" ht="12.75">
-      <c r="A161" s="15" t="s">
+      <c r="M164" s="9"/>
+    </row>
+    <row r="165" spans="1:13" ht="12.75">
+      <c r="A165" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B161" s="51" t="s">
+      <c r="B165" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C165" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D165" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E165" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="16" t="s">
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="J161" s="16" t="s">
+      <c r="J165" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="K161" s="16" t="s">
+      <c r="K165" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="L161" s="16" t="s">
+      <c r="L165" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="M161" s="17"/>
-    </row>
-    <row r="162" spans="1:13" ht="12.75">
-      <c r="A162" s="15" t="s">
+      <c r="M165" s="17"/>
+    </row>
+    <row r="166" spans="1:13" ht="12.75">
+      <c r="A166" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B162" s="51" t="s">
+      <c r="B166" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C166" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="D166" s="16" t="s">
         <v>2602</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E166" s="16" t="s">
         <v>2603</v>
       </c>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16" t="s">
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16" t="s">
         <v>2604</v>
       </c>
-      <c r="J162" s="16" t="s">
+      <c r="J166" s="16" t="s">
         <v>2310</v>
       </c>
-      <c r="K162" s="16" t="s">
+      <c r="K166" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="L162" s="16" t="s">
+      <c r="L166" s="16" t="s">
         <v>2607</v>
       </c>
-      <c r="M162" s="17"/>
-    </row>
-    <row r="163" spans="1:13" ht="12.75">
-      <c r="A163" s="15" t="s">
+      <c r="M166" s="17"/>
+    </row>
+    <row r="167" spans="1:13" ht="12.75">
+      <c r="A167" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B167" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C167" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D167" s="16" t="s">
         <v>2602</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E167" s="16" t="s">
         <v>2603</v>
       </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="16" t="s">
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16" t="s">
         <v>2604</v>
       </c>
-      <c r="J163" s="16" t="s">
+      <c r="J167" s="16" t="s">
         <v>2314</v>
       </c>
-      <c r="K163" s="16" t="s">
+      <c r="K167" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="L163" s="16" t="s">
+      <c r="L167" s="16" t="s">
         <v>2608</v>
       </c>
-      <c r="M163" s="17"/>
-    </row>
-    <row r="164" spans="1:13" ht="12.75">
-      <c r="A164" s="15" t="s">
+      <c r="M167" s="17"/>
+    </row>
+    <row r="168" spans="1:13" ht="12.75">
+      <c r="A168" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B164" s="51" t="s">
+      <c r="B168" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C168" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="D164" s="16" t="s">
+      <c r="D168" s="16" t="s">
         <v>2602</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E168" s="16" t="s">
         <v>2603</v>
       </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16" t="s">
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="16" t="s">
         <v>2604</v>
       </c>
-      <c r="J164" s="16" t="s">
+      <c r="J168" s="16" t="s">
         <v>2605</v>
       </c>
-      <c r="K164" s="16" t="s">
+      <c r="K168" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="L164" s="16" t="s">
+      <c r="L168" s="16" t="s">
         <v>2609</v>
       </c>
-      <c r="M164" s="17"/>
-    </row>
-    <row r="165" spans="1:13" ht="12.75">
-      <c r="A165" s="7" t="s">
+      <c r="M168" s="17"/>
+    </row>
+    <row r="169" spans="1:13" ht="12.75">
+      <c r="A169" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B169" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D169" s="8" t="s">
         <v>2602</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E169" s="8" t="s">
         <v>2603</v>
       </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8" t="s">
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8" t="s">
         <v>2604</v>
       </c>
-      <c r="J165" s="8" t="s">
+      <c r="J169" s="8" t="s">
         <v>2606</v>
       </c>
-      <c r="K165" s="8" t="s">
+      <c r="K169" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L165" s="8" t="s">
+      <c r="L169" s="8" t="s">
         <v>2610</v>
       </c>
-      <c r="M165" s="10"/>
+      <c r="M169" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -43811,9 +43972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -9360,8 +9360,8 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -9889,10 +9889,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -15456,7 +15456,7 @@
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:I23"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -17123,10 +17123,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -19622,8 +19622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -30296,8 +30296,8 @@
   <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -38384,7 +38384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
     </sheetView>
@@ -43972,9 +43972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11110" uniqueCount="3056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11122" uniqueCount="3061">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -9215,6 +9215,21 @@
   </si>
   <si>
     <t>ln.ods_fat_cotacao</t>
+  </si>
+  <si>
+    <t>(SC) ODS - TRP</t>
+  </si>
+  <si>
+    <t>(DFT) Trp - Ordens de Frete</t>
+  </si>
+  <si>
+    <t>ln.ods_trp_ordem_frete</t>
+  </si>
+  <si>
+    <t>(DFT) Tracking Pedido</t>
+  </si>
+  <si>
+    <t>ln.ods_wms_tracking_pedido</t>
   </si>
 </sst>
 </file>
@@ -10531,9 +10546,9 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -17295,10 +17310,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -17764,10 +17779,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -19861,10 +19876,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -20263,8 +20278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -21341,10 +21356,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -27803,10 +27818,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -28817,10 +28832,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -30934,11 +30949,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -34161,16 +34176,16 @@
       <c r="D110" s="42"/>
       <c r="E110" s="42"/>
       <c r="F110" s="42" t="s">
-        <v>238</v>
+        <v>2594</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>239</v>
+        <v>3059</v>
       </c>
       <c r="H110" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I110" s="42" t="s">
-        <v>240</v>
+        <v>3060</v>
       </c>
       <c r="J110" s="43"/>
     </row>
@@ -34188,13 +34203,13 @@
         <v>238</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H111" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I111" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J111" s="43"/>
     </row>
@@ -34212,13 +34227,13 @@
         <v>238</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H112" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I112" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J112" s="43"/>
     </row>
@@ -34236,13 +34251,13 @@
         <v>238</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H113" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I113" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J113" s="43"/>
     </row>
@@ -34260,13 +34275,13 @@
         <v>238</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H114" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I114" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J114" s="43"/>
     </row>
@@ -34281,16 +34296,16 @@
       <c r="D115" s="42"/>
       <c r="E115" s="42"/>
       <c r="F115" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H115" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I115" s="42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J115" s="43"/>
     </row>
@@ -34308,13 +34323,13 @@
         <v>249</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="H116" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J116" s="43"/>
     </row>
@@ -34332,13 +34347,13 @@
         <v>249</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H117" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J117" s="43"/>
     </row>
@@ -34356,13 +34371,13 @@
         <v>249</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H118" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J118" s="43"/>
     </row>
@@ -34380,13 +34395,13 @@
         <v>249</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H119" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J119" s="43"/>
     </row>
@@ -34404,13 +34419,13 @@
         <v>249</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="H120" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J120" s="43"/>
     </row>
@@ -34428,17 +34443,15 @@
         <v>249</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H121" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="J121" s="43" t="s">
-        <v>102</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="J121" s="43"/>
     </row>
     <row r="122" spans="1:10" s="44" customFormat="1">
       <c r="A122" s="41" t="s">
@@ -34451,40 +34464,42 @@
       <c r="D122" s="42"/>
       <c r="E122" s="42"/>
       <c r="F122" s="42" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H122" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="J122" s="43"/>
+        <v>261</v>
+      </c>
+      <c r="J122" s="43" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="123" spans="1:10" s="44" customFormat="1">
       <c r="A123" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="C123" s="42"/>
       <c r="D123" s="42"/>
       <c r="E123" s="42"/>
       <c r="F123" s="42" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H123" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J123" s="43"/>
     </row>
@@ -34493,22 +34508,22 @@
         <v>0</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="C124" s="42"/>
       <c r="D124" s="42"/>
       <c r="E124" s="42"/>
       <c r="F124" s="42" t="s">
-        <v>266</v>
+        <v>3056</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>269</v>
+        <v>3057</v>
       </c>
       <c r="H124" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>2593</v>
+        <v>3058</v>
       </c>
       <c r="J124" s="43"/>
     </row>
@@ -34526,13 +34541,13 @@
         <v>266</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H125" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J125" s="43"/>
     </row>
@@ -34550,13 +34565,13 @@
         <v>266</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H126" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>273</v>
+        <v>2593</v>
       </c>
       <c r="J126" s="43"/>
     </row>
@@ -34571,44 +34586,92 @@
       <c r="D127" s="42"/>
       <c r="E127" s="42"/>
       <c r="F127" s="42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H127" s="42" t="s">
         <v>215</v>
       </c>
       <c r="I127" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J127" s="43"/>
+    </row>
+    <row r="128" spans="1:10" s="44" customFormat="1">
+      <c r="A128" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="H128" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I128" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J128" s="43"/>
+    </row>
+    <row r="129" spans="1:10" s="44" customFormat="1">
+      <c r="A129" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="42"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="H129" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I129" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="J127" s="43" t="s">
+      <c r="J129" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="7" t="s">
+    <row r="130" spans="1:10">
+      <c r="A130" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B130" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G130" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H130" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="I130" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J128" s="10"/>
+      <c r="J130" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -34767,10 +34830,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -37319,7 +37382,7 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
@@ -46465,9 +46528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -48168,7 +48231,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11122" uniqueCount="3059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11122" uniqueCount="3058">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -7880,9 +7880,6 @@
   </si>
   <si>
     <t>ln.ods_wms_tracking_pedido_hist</t>
-  </si>
-  <si>
-    <t>dbo.stg_dom_tipo_transacao_razao</t>
   </si>
   <si>
     <t>dbo.stg_trp_ordem_frete</t>
@@ -14493,7 +14490,7 @@
         <v>396</v>
       </c>
       <c r="I65" s="49" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="J65" s="50"/>
     </row>
@@ -15479,22 +15476,22 @@
       <c r="C98" s="53"/>
       <c r="D98" s="53"/>
       <c r="E98" s="53" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F98" s="53" t="s">
         <v>2811</v>
       </c>
-      <c r="F98" s="53" t="s">
+      <c r="G98" s="53" t="s">
         <v>2812</v>
-      </c>
-      <c r="G98" s="53" t="s">
-        <v>2813</v>
       </c>
       <c r="H98" s="53" t="s">
         <v>396</v>
       </c>
       <c r="I98" s="53" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J98" s="54" t="s">
         <v>2814</v>
-      </c>
-      <c r="J98" s="54" t="s">
-        <v>2815</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -15532,20 +15529,20 @@
         <v>1193</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="49" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="H100" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I100" s="49" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="J100" s="50"/>
     </row>
@@ -15557,19 +15554,19 @@
         <v>1004</v>
       </c>
       <c r="C101" s="49" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D101" s="49" t="s">
         <v>2746</v>
       </c>
-      <c r="D101" s="49" t="s">
-        <v>2747</v>
-      </c>
       <c r="E101" s="49" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="F101" s="49" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="G101" s="49" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="H101" s="49" t="s">
         <v>396</v>
@@ -15587,19 +15584,19 @@
         <v>1004</v>
       </c>
       <c r="C102" s="49" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D102" s="49" t="s">
         <v>2746</v>
       </c>
-      <c r="D102" s="49" t="s">
-        <v>2747</v>
-      </c>
       <c r="E102" s="49" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="F102" s="49" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="G102" s="49" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="H102" s="49" t="s">
         <v>396</v>
@@ -15617,19 +15614,19 @@
         <v>1004</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="F103" s="49" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="G103" s="49" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="H103" s="49" t="s">
         <v>213</v>
@@ -15649,19 +15646,19 @@
         <v>1004</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="F104" s="49" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="H104" s="49" t="s">
         <v>213</v>
@@ -15681,19 +15678,19 @@
         <v>1004</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="E105" s="49" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F105" s="49" t="s">
         <v>2753</v>
       </c>
-      <c r="F105" s="49" t="s">
-        <v>2754</v>
-      </c>
       <c r="G105" s="49" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="H105" s="49" t="s">
         <v>396</v>
@@ -15711,19 +15708,19 @@
         <v>1004</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D106" s="49" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="E106" s="49" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F106" s="49" t="s">
         <v>2753</v>
       </c>
-      <c r="F106" s="49" t="s">
-        <v>2754</v>
-      </c>
       <c r="G106" s="49" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="H106" s="49" t="s">
         <v>396</v>
@@ -15741,25 +15738,25 @@
         <v>1004</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="F107" s="49" t="s">
+        <v>2763</v>
+      </c>
+      <c r="G107" s="49" t="s">
         <v>2764</v>
-      </c>
-      <c r="G107" s="49" t="s">
-        <v>2765</v>
       </c>
       <c r="H107" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I107" s="49" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="J107" s="50" t="s">
         <v>100</v>
@@ -15773,25 +15770,25 @@
         <v>1004</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E108" s="49" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F108" s="49" t="s">
         <v>2767</v>
       </c>
-      <c r="F108" s="49" t="s">
-        <v>2768</v>
-      </c>
       <c r="G108" s="49" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="H108" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I108" s="49" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="J108" s="50"/>
     </row>
@@ -15803,19 +15800,19 @@
         <v>1004</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D109" s="49" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E109" s="49" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F109" s="49" t="s">
         <v>2767</v>
       </c>
-      <c r="F109" s="49" t="s">
-        <v>2768</v>
-      </c>
       <c r="G109" s="49" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="H109" s="49" t="s">
         <v>396</v>
@@ -15833,19 +15830,19 @@
         <v>1004</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E110" s="49" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F110" s="49" t="s">
         <v>2767</v>
       </c>
-      <c r="F110" s="49" t="s">
-        <v>2768</v>
-      </c>
       <c r="G110" s="49" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="H110" s="49" t="s">
         <v>396</v>
@@ -15863,19 +15860,19 @@
         <v>1004</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E111" s="49" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F111" s="49" t="s">
         <v>2767</v>
       </c>
-      <c r="F111" s="49" t="s">
-        <v>2768</v>
-      </c>
       <c r="G111" s="49" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="H111" s="49" t="s">
         <v>396</v>
@@ -15893,16 +15890,16 @@
         <v>1004</v>
       </c>
       <c r="C112" s="49" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D112" s="49" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E112" s="49" t="s">
         <v>2772</v>
       </c>
-      <c r="E112" s="49" t="s">
+      <c r="F112" s="49" t="s">
         <v>2773</v>
-      </c>
-      <c r="F112" s="49" t="s">
-        <v>2774</v>
       </c>
       <c r="G112" s="49" t="s">
         <v>1198</v>
@@ -15911,7 +15908,7 @@
         <v>213</v>
       </c>
       <c r="I112" s="49" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="J112" s="50" t="s">
         <v>100</v>
@@ -15925,16 +15922,16 @@
         <v>1004</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D113" s="49" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E113" s="49" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F113" s="49" t="s">
         <v>2777</v>
-      </c>
-      <c r="E113" s="49" t="s">
-        <v>2776</v>
-      </c>
-      <c r="F113" s="49" t="s">
-        <v>2778</v>
       </c>
       <c r="G113" s="49" t="s">
         <v>1198</v>
@@ -15943,7 +15940,7 @@
         <v>213</v>
       </c>
       <c r="I113" s="49" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="J113" s="50" t="s">
         <v>100</v>
@@ -15957,25 +15954,25 @@
         <v>1004</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D114" s="49" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E114" s="49" t="s">
         <v>2779</v>
       </c>
-      <c r="E114" s="49" t="s">
+      <c r="F114" s="49" t="s">
         <v>2780</v>
       </c>
-      <c r="F114" s="49" t="s">
+      <c r="G114" s="49" t="s">
         <v>2781</v>
-      </c>
-      <c r="G114" s="49" t="s">
-        <v>2782</v>
       </c>
       <c r="H114" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I114" s="49" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="J114" s="50" t="s">
         <v>100</v>
@@ -15989,25 +15986,25 @@
         <v>1004</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D115" s="49" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E115" s="49" t="s">
         <v>2779</v>
       </c>
-      <c r="E115" s="49" t="s">
-        <v>2780</v>
-      </c>
       <c r="F115" s="49" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G115" s="49" t="s">
         <v>2784</v>
-      </c>
-      <c r="G115" s="49" t="s">
-        <v>2785</v>
       </c>
       <c r="H115" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I115" s="49" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="J115" s="50" t="s">
         <v>100</v>
@@ -16021,25 +16018,25 @@
         <v>1004</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D116" s="49" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E116" s="49" t="s">
         <v>2779</v>
       </c>
-      <c r="E116" s="49" t="s">
-        <v>2780</v>
-      </c>
       <c r="F116" s="49" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G116" s="49" t="s">
         <v>2787</v>
-      </c>
-      <c r="G116" s="49" t="s">
-        <v>2788</v>
       </c>
       <c r="H116" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I116" s="49" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="J116" s="50" t="s">
         <v>100</v>
@@ -17733,7 +17730,7 @@
         <v>396</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>100</v>
@@ -20549,29 +20546,29 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="70" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>2637</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="C20" s="25" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>2638</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>2640</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>2639</v>
       </c>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="25" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>2641</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>2642</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>2643</v>
       </c>
       <c r="E21" s="26"/>
     </row>
@@ -30946,8 +30943,8 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -31353,7 +31350,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -31413,7 +31410,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="J15" s="9"/>
     </row>
@@ -32133,7 +32130,7 @@
         <v>6</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>2611</v>
+        <v>2845</v>
       </c>
       <c r="J39" s="9"/>
     </row>
@@ -32735,13 +32732,13 @@
         <v>107</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="J59" s="9"/>
     </row>
@@ -33765,7 +33762,7 @@
         <v>6</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="J93" s="9"/>
     </row>
@@ -34149,13 +34146,13 @@
         <v>2592</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="H109" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I109" s="42" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="J109" s="43"/>
     </row>
@@ -34173,13 +34170,13 @@
         <v>2592</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="H110" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I110" s="42" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="J110" s="43"/>
     </row>
@@ -34508,16 +34505,16 @@
       <c r="D124" s="42"/>
       <c r="E124" s="42"/>
       <c r="F124" s="42" t="s">
+        <v>3053</v>
+      </c>
+      <c r="G124" s="42" t="s">
         <v>3054</v>
-      </c>
-      <c r="G124" s="42" t="s">
-        <v>3055</v>
       </c>
       <c r="H124" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="J124" s="43"/>
     </row>
@@ -37475,7 +37472,7 @@
         <v>2476</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>2450</v>
@@ -37537,7 +37534,7 @@
         <v>2453</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>2450</v>
@@ -37599,7 +37596,7 @@
         <v>2460</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="G7" s="49" t="s">
         <v>2450</v>
@@ -37614,48 +37611,48 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="41" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="42" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I8" s="49" t="s">
+        <v>2695</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>2696</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>2697</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F9" s="49" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G9" s="49" t="s">
         <v>2700</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>2701</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>100</v>
@@ -37663,25 +37660,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>100</v>
@@ -37689,25 +37686,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>100</v>
@@ -37715,25 +37712,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>2707</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>2700</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>2708</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="J12" s="50" t="s">
         <v>100</v>
@@ -37741,25 +37738,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="J13" s="50" t="s">
         <v>100</v>
@@ -37767,71 +37764,71 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="49" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="J16" s="50" t="s">
         <v>100</v>
@@ -37839,23 +37836,23 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="49" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="J17" s="50" t="s">
         <v>100</v>
@@ -37863,785 +37860,785 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F18" s="49"/>
       <c r="G18" s="49" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F22" s="49" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G22" s="49" t="s">
         <v>2700</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>2701</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="49" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="49" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G25" s="49" t="s">
         <v>2723</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>2700</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>2724</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="49" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="49" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>2726</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="G29" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F30" s="49" t="s">
         <v>2726</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="G30" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="49" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
       <c r="E32" s="49" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="F32" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G32" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I32" s="49" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
       <c r="E33" s="49" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="F33" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G33" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I33" s="49" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
       <c r="E34" s="49" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="F34" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G34" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I34" s="49" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="F35" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G35" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I35" s="49" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
       <c r="E36" s="49" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="F36" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G36" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="49" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="F37" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G37" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H37" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I37" s="49" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="49" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="F38" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G38" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H38" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
       <c r="E39" s="49" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="F39" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G39" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H39" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I39" s="49" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="49"/>
       <c r="D40" s="49"/>
       <c r="E40" s="49" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="F40" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G40" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H40" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I40" s="49" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="49"/>
       <c r="D41" s="49"/>
       <c r="E41" s="49" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="F41" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G41" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H41" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I41" s="49" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="J41" s="50"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="41" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
       <c r="E42" s="49" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="F42" s="49" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G42" s="49" t="s">
         <v>2727</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>2728</v>
       </c>
       <c r="H42" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I42" s="49" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="41" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C43" s="49" t="s">
         <v>2794</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="D43" s="49" t="s">
         <v>2796</v>
       </c>
-      <c r="C43" s="49" t="s">
-        <v>2795</v>
-      </c>
-      <c r="D43" s="49" t="s">
+      <c r="E43" s="49" t="s">
         <v>2797</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="F43" s="49" t="s">
         <v>2798</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="G43" s="49" t="s">
         <v>2799</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>2800</v>
       </c>
       <c r="H43" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I43" s="49" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="J43" s="50"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="41" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>2794</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>2795</v>
-      </c>
       <c r="D44" s="49" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>2802</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="F44" s="49" t="s">
         <v>2803</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="G44" s="49" t="s">
         <v>2804</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>2805</v>
       </c>
       <c r="H44" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I44" s="49" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="J44" s="50"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="41" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C45" s="49" t="s">
         <v>2794</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>2795</v>
-      </c>
       <c r="D45" s="49" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E45" s="49" t="s">
         <v>2802</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="F45" s="49" t="s">
         <v>2803</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="G45" s="49" t="s">
         <v>2804</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>2805</v>
       </c>
       <c r="H45" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="J45" s="50"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="41" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C46" s="49" t="s">
         <v>2794</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>2795</v>
-      </c>
       <c r="D46" s="49" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E46" s="49" t="s">
         <v>2802</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="F46" s="49" t="s">
         <v>2803</v>
       </c>
-      <c r="F46" s="49" t="s">
-        <v>2804</v>
-      </c>
       <c r="G46" s="49" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="H46" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I46" s="49" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="41" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C47" s="49" t="s">
         <v>2794</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>2795</v>
-      </c>
       <c r="D47" s="49" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E47" s="49" t="s">
         <v>2802</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="F47" s="49" t="s">
         <v>2803</v>
       </c>
-      <c r="F47" s="49" t="s">
-        <v>2804</v>
-      </c>
       <c r="G47" s="49" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I47" s="49" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="41" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E48" s="49" t="s">
         <v>2816</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="F48" s="49" t="s">
         <v>2817</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="G48" s="49" t="s">
         <v>2818</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>2819</v>
       </c>
       <c r="H48" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I48" s="49" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="J48" s="50"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B49" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="C49" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F49" s="49" t="s">
         <v>2837</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>2838</v>
       </c>
       <c r="G49" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I49" s="49" t="s">
         <v>20</v>
@@ -38650,28 +38647,28 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B50" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="C50" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F50" s="49" t="s">
         <v>2837</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>2838</v>
       </c>
       <c r="G50" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I50" s="49" t="s">
         <v>26</v>
@@ -38680,58 +38677,58 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="C51" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F51" s="49" t="s">
         <v>2837</v>
       </c>
-      <c r="C51" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F51" s="49" t="s">
+      <c r="G51" s="49" t="s">
+        <v>2839</v>
+      </c>
+      <c r="H51" s="49" t="s">
         <v>2838</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="I51" s="49" t="s">
         <v>2840</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>2839</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>2841</v>
       </c>
       <c r="J51" s="50"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="C52" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F52" s="49" t="s">
         <v>2837</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>2838</v>
       </c>
       <c r="G52" s="49" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>31</v>
@@ -38740,685 +38737,685 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B53" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="C53" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F53" s="49" t="s">
         <v>2837</v>
       </c>
-      <c r="C53" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F53" s="49" t="s">
+      <c r="G53" s="49" t="s">
+        <v>2842</v>
+      </c>
+      <c r="H53" s="49" t="s">
         <v>2838</v>
       </c>
-      <c r="G53" s="49" t="s">
-        <v>2843</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>2839</v>
-      </c>
       <c r="I53" s="49" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="J53" s="50"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B54" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="C54" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F54" s="49" t="s">
         <v>2837</v>
       </c>
-      <c r="C54" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F54" s="49" t="s">
+      <c r="G54" s="49" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H54" s="49" t="s">
         <v>2838</v>
       </c>
-      <c r="G54" s="49" t="s">
-        <v>2845</v>
-      </c>
-      <c r="H54" s="49" t="s">
-        <v>2839</v>
-      </c>
       <c r="I54" s="49" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="J54" s="50"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B55" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="C55" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F55" s="49" t="s">
         <v>2837</v>
       </c>
-      <c r="C55" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F55" s="49" t="s">
+      <c r="G55" s="49" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H55" s="49" t="s">
         <v>2838</v>
       </c>
-      <c r="G55" s="49" t="s">
-        <v>2847</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>2839</v>
-      </c>
       <c r="I55" s="49" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="J55" s="50"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B56" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="C56" s="49" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F56" s="49" t="s">
         <v>2837</v>
       </c>
-      <c r="C56" s="49" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F56" s="49" t="s">
+      <c r="G56" s="49" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H56" s="49" t="s">
         <v>2838</v>
       </c>
-      <c r="G56" s="49" t="s">
-        <v>2849</v>
-      </c>
-      <c r="H56" s="49" t="s">
-        <v>2839</v>
-      </c>
       <c r="I56" s="49" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="J56" s="50"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B57" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B57" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C57" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D57" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F57" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E57" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F57" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G57" s="49" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="H57" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I57" s="49" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="J57" s="50"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B58" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B58" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C58" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D58" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F58" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E58" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G58" s="49" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="H58" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I58" s="49" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B59" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B59" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C59" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D59" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F59" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E59" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F59" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G59" s="49" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="H59" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I59" s="49" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="J59" s="50"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B60" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B60" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C60" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D60" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F60" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E60" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F60" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G60" s="49" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="H60" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I60" s="49" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="J60" s="50"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B61" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C61" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D61" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F61" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E61" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G61" s="49" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="H61" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I61" s="49" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="J61" s="50"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B62" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C62" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D62" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E62" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G62" s="49" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="H62" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I62" s="49" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="J62" s="50"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B63" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B63" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C63" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D63" s="49" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F63" s="49" t="s">
         <v>2852</v>
       </c>
-      <c r="E63" s="49" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>2853</v>
-      </c>
       <c r="G63" s="49" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="H63" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I63" s="49" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="J63" s="50"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="41" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B64" s="42" t="s">
         <v>2836</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>2837</v>
-      </c>
       <c r="C64" s="49" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="F64" s="49" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G64" s="49" t="s">
         <v>2868</v>
-      </c>
-      <c r="G64" s="49" t="s">
-        <v>2869</v>
       </c>
       <c r="H64" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I64" s="49" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="J64" s="50"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="41" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B65" s="42" t="s">
         <v>2872</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="C65" s="49" t="s">
         <v>2873</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="D65" s="49" t="s">
         <v>2874</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="E65" s="49" t="s">
         <v>2875</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="F65" s="49" t="s">
         <v>2876</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="G65" s="49" t="s">
         <v>2877</v>
-      </c>
-      <c r="G65" s="49" t="s">
-        <v>2878</v>
       </c>
       <c r="H65" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I65" s="49" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="J65" s="50"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="41" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B66" s="42" t="s">
         <v>2872</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="C66" s="49" t="s">
         <v>2873</v>
       </c>
-      <c r="C66" s="49" t="s">
-        <v>2874</v>
-      </c>
       <c r="D66" s="49" t="s">
+        <v>2880</v>
+      </c>
+      <c r="E66" s="49" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G66" s="49" t="s">
         <v>2881</v>
-      </c>
-      <c r="E66" s="49" t="s">
-        <v>2880</v>
-      </c>
-      <c r="F66" s="49" t="s">
-        <v>2883</v>
-      </c>
-      <c r="G66" s="49" t="s">
-        <v>2882</v>
       </c>
       <c r="H66" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I66" s="49" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="J66" s="50"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B67" s="42"/>
       <c r="C67" s="49"/>
       <c r="D67" s="49"/>
       <c r="E67" s="49" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F67" s="49" t="s">
         <v>2886</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="G67" s="49" t="s">
         <v>2887</v>
-      </c>
-      <c r="G67" s="49" t="s">
-        <v>2888</v>
       </c>
       <c r="H67" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I67" s="49" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="J67" s="50"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B68" s="42"/>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
       <c r="E68" s="49" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>2890</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="G68" s="49" t="s">
         <v>2891</v>
-      </c>
-      <c r="G68" s="49" t="s">
-        <v>2892</v>
       </c>
       <c r="H68" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I68" s="49" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="J68" s="50"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B69" s="42"/>
       <c r="C69" s="49"/>
       <c r="D69" s="49"/>
       <c r="E69" s="49" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="F69" s="49" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G69" s="49" t="s">
         <v>2894</v>
-      </c>
-      <c r="G69" s="49" t="s">
-        <v>2895</v>
       </c>
       <c r="H69" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I69" s="49" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="J69" s="50"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B70" s="42"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>2897</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="G70" s="49" t="s">
         <v>2898</v>
-      </c>
-      <c r="G70" s="49" t="s">
-        <v>2899</v>
       </c>
       <c r="H70" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I70" s="49" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="J70" s="50"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B71" s="42"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
       <c r="E71" s="49" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F71" s="49" t="s">
         <v>2897</v>
       </c>
-      <c r="F71" s="49" t="s">
-        <v>2898</v>
-      </c>
       <c r="G71" s="49" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="H71" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="J71" s="50"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B72" s="42"/>
       <c r="C72" s="49"/>
       <c r="D72" s="49"/>
       <c r="E72" s="49" t="s">
+        <v>2901</v>
+      </c>
+      <c r="F72" s="49" t="s">
         <v>2902</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="G72" s="49" t="s">
         <v>2903</v>
-      </c>
-      <c r="G72" s="49" t="s">
-        <v>2904</v>
       </c>
       <c r="H72" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="J72" s="50"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B73" s="42"/>
       <c r="C73" s="49"/>
       <c r="D73" s="49"/>
       <c r="E73" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F73" s="49" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G73" s="49" t="s">
         <v>2906</v>
-      </c>
-      <c r="G73" s="49" t="s">
-        <v>2907</v>
       </c>
       <c r="H73" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="J73" s="50"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B74" s="42"/>
       <c r="C74" s="49"/>
       <c r="D74" s="49"/>
       <c r="E74" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F74" s="49" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G74" s="49" t="s">
         <v>2908</v>
-      </c>
-      <c r="G74" s="49" t="s">
-        <v>2909</v>
       </c>
       <c r="H74" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B75" s="42"/>
       <c r="C75" s="49"/>
       <c r="D75" s="49"/>
       <c r="E75" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F75" s="49" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G75" s="49" t="s">
         <v>2911</v>
-      </c>
-      <c r="G75" s="49" t="s">
-        <v>2912</v>
       </c>
       <c r="H75" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="J75" s="50"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B76" s="42"/>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
       <c r="E76" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F76" s="49" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G76" s="49" t="s">
         <v>2913</v>
-      </c>
-      <c r="G76" s="49" t="s">
-        <v>2914</v>
       </c>
       <c r="H76" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B77" s="42"/>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
       <c r="E77" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F77" s="49" t="s">
+        <v>2914</v>
+      </c>
+      <c r="G77" s="49" t="s">
         <v>2915</v>
-      </c>
-      <c r="G77" s="49" t="s">
-        <v>2916</v>
       </c>
       <c r="H77" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="J77" s="50" t="s">
         <v>100</v>
@@ -39426,376 +39423,376 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B78" s="42"/>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
       <c r="E78" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F78" s="49" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G78" s="49" t="s">
         <v>2919</v>
-      </c>
-      <c r="G78" s="49" t="s">
-        <v>2920</v>
       </c>
       <c r="H78" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B79" s="42"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
       <c r="E79" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G79" s="49" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="H79" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I79" s="49" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="J79" s="50"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B80" s="42"/>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
       <c r="E80" s="49" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F80" s="49" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G80" s="49" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="H80" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I80" s="49" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="J80" s="50"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="49"/>
       <c r="D81" s="49"/>
       <c r="E81" s="49" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F81" s="49" t="s">
         <v>2926</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="G81" s="49" t="s">
         <v>2927</v>
-      </c>
-      <c r="G81" s="49" t="s">
-        <v>2928</v>
       </c>
       <c r="H81" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I81" s="49" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="J81" s="50"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="49" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F82" s="49" t="s">
         <v>2926</v>
       </c>
-      <c r="F82" s="49" t="s">
+      <c r="G82" s="49" t="s">
         <v>2927</v>
-      </c>
-      <c r="G82" s="49" t="s">
-        <v>2928</v>
       </c>
       <c r="H82" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I82" s="49" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="J82" s="50"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
       <c r="E83" s="49" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F83" s="49" t="s">
         <v>2931</v>
       </c>
-      <c r="F83" s="49" t="s">
+      <c r="G83" s="49" t="s">
         <v>2932</v>
-      </c>
-      <c r="G83" s="49" t="s">
-        <v>2933</v>
       </c>
       <c r="H83" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I83" s="49" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="J83" s="50"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="49" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F84" s="49" t="s">
         <v>2931</v>
       </c>
-      <c r="F84" s="49" t="s">
-        <v>2932</v>
-      </c>
       <c r="G84" s="16" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="H84" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I84" s="49" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="J84" s="17"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="49" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F85" s="49" t="s">
         <v>2931</v>
       </c>
-      <c r="F85" s="49" t="s">
-        <v>2932</v>
-      </c>
       <c r="G85" s="16" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="H85" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I85" s="49" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="49" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F86" s="16" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G86" s="16" t="s">
         <v>2939</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>2940</v>
       </c>
       <c r="H86" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I86" s="49" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="49" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="H87" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I87" s="49" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J87" s="17"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="49" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F88" s="16" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>2943</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>2944</v>
       </c>
       <c r="H88" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I88" s="49" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="J88" s="17"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="49" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="H89" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I89" s="49" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J89" s="17"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="49" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F90" s="16" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>2946</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>2947</v>
       </c>
       <c r="H90" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I90" s="49" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="J90" s="17"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="49" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="H91" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I91" s="49" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J91" s="17"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="41" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="49" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>2949</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="G92" s="16" t="s">
         <v>2950</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>2951</v>
       </c>
       <c r="H92" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I92" s="49" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="J92" s="17"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="48" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="49" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>2954</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>2955</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>717</v>
@@ -39804,22 +39801,22 @@
         <v>396</v>
       </c>
       <c r="I93" s="49" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="J93" s="17"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="48" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="49" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F94" s="16" t="s">
         <v>2957</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>2958</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>1198</v>
@@ -39828,22 +39825,22 @@
         <v>1067</v>
       </c>
       <c r="I94" s="49" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="J94" s="17"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="48" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="49" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>2957</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>2958</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>1198</v>
@@ -39852,646 +39849,646 @@
         <v>396</v>
       </c>
       <c r="I95" s="49" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="J95" s="17"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="49" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="H96" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I96" s="49" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="J96" s="17"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="49" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="F97" s="16" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G97" s="16" t="s">
         <v>2965</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>2966</v>
       </c>
       <c r="H97" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I97" s="49" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="J97" s="17"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="49" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="F98" s="16" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G98" s="16" t="s">
         <v>2968</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="H98" s="49" t="s">
+        <v>2970</v>
+      </c>
+      <c r="I98" s="49" t="s">
         <v>2969</v>
-      </c>
-      <c r="H98" s="49" t="s">
-        <v>2971</v>
-      </c>
-      <c r="I98" s="49" t="s">
-        <v>2970</v>
       </c>
       <c r="J98" s="17"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="49" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="H99" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I99" s="49" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="J99" s="17"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="49" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="H100" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I100" s="49" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="J100" s="17"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="49" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F101" s="16" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>2977</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>2978</v>
       </c>
       <c r="H101" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I101" s="49" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="J101" s="17"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="49" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F102" s="16" t="s">
         <v>2981</v>
       </c>
-      <c r="F102" s="16" t="s">
-        <v>2982</v>
-      </c>
       <c r="G102" s="16" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="H102" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I102" s="49" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="J102" s="17"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="49" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F103" s="16" t="s">
         <v>2981</v>
       </c>
-      <c r="F103" s="16" t="s">
-        <v>2982</v>
-      </c>
       <c r="G103" s="16" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="H103" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I103" s="49" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="J103" s="17"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F104" s="16" t="s">
+        <v>2986</v>
+      </c>
+      <c r="G104" s="16" t="s">
         <v>2987</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>2988</v>
       </c>
       <c r="H104" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I104" s="49" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="J104" s="17"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="H105" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I105" s="49" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="J105" s="17"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F106" s="16" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G106" s="16" t="s">
         <v>2992</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>2993</v>
       </c>
       <c r="H106" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I106" s="49" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="J106" s="17"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F107" s="16" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G107" s="16" t="s">
         <v>2992</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>2993</v>
       </c>
       <c r="H107" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I107" s="49" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="J107" s="17"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="H108" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I108" s="49" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="J108" s="17"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="H109" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I109" s="49" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="J109" s="17"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="48" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="49" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F110" s="16" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G110" s="16" t="s">
         <v>2996</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>2997</v>
       </c>
       <c r="H110" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I110" s="49" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="J110" s="17"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B111" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C111" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>482</v>
       </c>
       <c r="E111" s="49" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F111" s="16" t="s">
         <v>3001</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="G111" s="16" t="s">
         <v>3002</v>
       </c>
-      <c r="G111" s="16" t="s">
-        <v>3003</v>
-      </c>
       <c r="H111" s="49" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I111" s="49" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="J111" s="17"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B112" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>482</v>
       </c>
       <c r="E112" s="49" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F112" s="16" t="s">
         <v>3001</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>3002</v>
-      </c>
       <c r="G112" s="16" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="H112" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I112" s="49" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="J112" s="17"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B113" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C113" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>482</v>
       </c>
       <c r="E113" s="49" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F113" s="16" t="s">
         <v>3001</v>
       </c>
-      <c r="F113" s="16" t="s">
-        <v>3002</v>
-      </c>
       <c r="G113" s="16" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="H113" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I113" s="49" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="J113" s="17"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B114" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C114" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>482</v>
       </c>
       <c r="E114" s="49" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F114" s="16" t="s">
         <v>3001</v>
       </c>
-      <c r="F114" s="16" t="s">
-        <v>3002</v>
-      </c>
       <c r="G114" s="16" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="H114" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I114" s="49" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="J114" s="17"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B115" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>482</v>
       </c>
       <c r="E115" s="49" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F115" s="16" t="s">
         <v>3001</v>
       </c>
-      <c r="F115" s="16" t="s">
-        <v>3002</v>
-      </c>
       <c r="G115" s="16" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I115" s="49" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="J115" s="17"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B116" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C116" s="16" t="s">
         <v>2999</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>3000</v>
-      </c>
       <c r="D116" s="16" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="E116" s="49" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="F116" s="16" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G116" s="16" t="s">
         <v>3016</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>3017</v>
       </c>
       <c r="H116" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I116" s="49" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="J116" s="17"/>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B117" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C117" s="16" t="s">
         <v>2999</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>3000</v>
-      </c>
       <c r="D117" s="16" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="E117" s="49" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="H117" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I117" s="49" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="J117" s="17"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B118" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>488</v>
       </c>
       <c r="E118" s="49" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F118" s="16" t="s">
         <v>3023</v>
       </c>
-      <c r="F118" s="16" t="s">
+      <c r="G118" s="16" t="s">
         <v>3024</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>3025</v>
       </c>
       <c r="H118" s="49" t="s">
         <v>213</v>
       </c>
       <c r="I118" s="49" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="J118" s="17"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="48" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B119" s="49" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C119" s="16" t="s">
         <v>2999</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>3000</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>499</v>
       </c>
       <c r="E119" s="49" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="H119" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="J119" s="17"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B120" s="49"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F120" s="16" t="s">
         <v>3032</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>3033</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>2365</v>
@@ -40500,151 +40497,151 @@
         <v>1067</v>
       </c>
       <c r="I120" s="49" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="J120" s="17"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F121" s="16" t="s">
         <v>3035</v>
       </c>
-      <c r="F121" s="16" t="s">
+      <c r="G121" s="16" t="s">
         <v>3036</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>3037</v>
       </c>
       <c r="H121" s="49" t="s">
         <v>396</v>
       </c>
       <c r="I121" s="49" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="J121" s="17"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F122" s="16" t="s">
         <v>3039</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="G122" s="16" t="s">
         <v>3040</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>3041</v>
       </c>
       <c r="H122" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I122" s="49" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="J122" s="17"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="F123" s="16" t="s">
+        <v>3042</v>
+      </c>
+      <c r="G123" s="16" t="s">
         <v>3043</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>3044</v>
       </c>
       <c r="H123" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I123" s="49" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="J123" s="17"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="F124" s="16" t="s">
+        <v>3042</v>
+      </c>
+      <c r="G124" s="16" t="s">
         <v>3043</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>3044</v>
       </c>
       <c r="H124" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I124" s="49" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="J124" s="17"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F125" s="16" t="s">
         <v>3047</v>
       </c>
-      <c r="F125" s="16" t="s">
+      <c r="G125" s="16" t="s">
         <v>3048</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>3049</v>
       </c>
       <c r="H125" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I125" s="49" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="J125" s="17"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="48" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F126" s="16" t="s">
         <v>3047</v>
       </c>
-      <c r="F126" s="16" t="s">
+      <c r="G126" s="16" t="s">
         <v>3048</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>3049</v>
       </c>
       <c r="H126" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="I126" s="49" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="J126" s="17"/>
     </row>
@@ -42203,13 +42200,13 @@
         <v>106</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="M46" s="9"/>
     </row>
@@ -42230,13 +42227,13 @@
         <v>106</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="M47" s="9"/>
     </row>
@@ -42700,7 +42697,7 @@
         <v>396</v>
       </c>
       <c r="L61" s="33" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="M61" s="39"/>
     </row>
@@ -42724,7 +42721,7 @@
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>419</v>
@@ -42757,16 +42754,16 @@
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
       <c r="I63" s="33" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="K63" s="33" t="s">
         <v>396</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="M63" s="39"/>
     </row>
@@ -42790,16 +42787,16 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
       <c r="I64" s="33" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="K64" s="33" t="s">
         <v>396</v>
       </c>
       <c r="L64" s="33" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="M64" s="39"/>
     </row>
@@ -42823,16 +42820,16 @@
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="K65" s="33" t="s">
         <v>396</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="M65" s="39"/>
     </row>
@@ -42856,16 +42853,16 @@
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="33" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="J66" s="33" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="K66" s="33" t="s">
         <v>396</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="M66" s="39"/>
     </row>
@@ -42955,7 +42952,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
       <c r="I69" s="33" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J69" s="33" t="s">
         <v>471</v>
@@ -42988,16 +42985,16 @@
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
       <c r="I70" s="33" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J70" s="33" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="K70" s="33" t="s">
         <v>213</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="M70" s="39"/>
     </row>
@@ -43021,16 +43018,16 @@
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
       <c r="I71" s="33" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="K71" s="33" t="s">
         <v>213</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="M71" s="39"/>
     </row>
@@ -43054,16 +43051,16 @@
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
       <c r="I72" s="33" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="K72" s="33" t="s">
         <v>213</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="M72" s="39"/>
     </row>
@@ -43087,16 +43084,16 @@
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
       <c r="I73" s="33" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="K73" s="33" t="s">
         <v>213</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="M73" s="39"/>
     </row>
@@ -43360,7 +43357,7 @@
         <v>213</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="M81" s="39"/>
     </row>
@@ -43525,7 +43522,7 @@
         <v>213</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="M86" s="39" t="s">
         <v>100</v>
@@ -43560,7 +43557,7 @@
         <v>213</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="M87" s="39" t="s">
         <v>100</v>
@@ -44786,7 +44783,7 @@
         <v>486</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="M121" s="9"/>
     </row>
@@ -44816,16 +44813,16 @@
         <v>554</v>
       </c>
       <c r="I122" s="6" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J122" s="6" t="s">
         <v>2831</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>2832</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>213</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="M122" s="9"/>
     </row>
@@ -44855,16 +44852,16 @@
         <v>554</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>213</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="M123" s="9"/>
     </row>
@@ -46067,7 +46064,7 @@
         <v>213</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="M156" s="9"/>
     </row>
@@ -48484,13 +48481,13 @@
         <v>772</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>213</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -48610,13 +48607,13 @@
         <v>779</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -48631,13 +48628,13 @@
         <v>779</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -48765,7 +48762,7 @@
         <v>213</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -48774,19 +48771,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>2622</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>2623</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2624</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -48795,19 +48792,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>2622</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>2623</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -48816,19 +48813,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>2622</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>2623</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -48837,19 +48834,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>213</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -48858,19 +48855,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -48879,19 +48876,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>213</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -49636,331 +49633,331 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2644</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2645</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>482</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>2646</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>2647</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2648</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2644</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2645</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>482</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>2646</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>2647</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2644</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2645</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>482</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>2646</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>2647</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>2644</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2645</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>488</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>2654</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>2655</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>2644</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2645</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>488</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>2654</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>2655</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>213</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>2644</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2645</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>488</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>2654</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>2655</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>213</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>2635</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>2661</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>2636</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>2662</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>2663</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>2635</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>2661</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2636</v>
-      </c>
       <c r="F9" s="6" t="s">
+        <v>2664</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>2665</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>2666</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>2635</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2661</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2636</v>
-      </c>
       <c r="F10" s="6" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>2667</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>2668</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>2635</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2661</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2636</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>427</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>2659</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>2660</v>
-      </c>
       <c r="D12" s="6" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>2670</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>2671</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>2366</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="J12" s="9"/>
     </row>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="27" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11122" uniqueCount="3058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11140" uniqueCount="3069">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -9221,6 +9221,39 @@
   </si>
   <si>
     <t>ln.ods_wms_tracking_pedido</t>
+  </si>
+  <si>
+    <t>CAR_Cliente_B2B</t>
+  </si>
+  <si>
+    <t>N:\Migracao\CAR_Cliente_B2B\ssis_controlador_car_cliente_b2b.dtsx</t>
+  </si>
+  <si>
+    <t>(SC) Controlador CAR Cliente B2B</t>
+  </si>
+  <si>
+    <t>N:\Migracao\CAR_Cliente_B2B\stg_car_cliente_b2b.dtsx</t>
+  </si>
+  <si>
+    <t>N:\Migracao\CAR_Cliente_B2B\ods_car_cliente_b2b.dtsx</t>
+  </si>
+  <si>
+    <t>(SC) Carrega STG</t>
+  </si>
+  <si>
+    <t>(DFT) STG CAR Cliente B2B</t>
+  </si>
+  <si>
+    <t>dbo.stg_car_cliente_b2b</t>
+  </si>
+  <si>
+    <t>(SC) Carrega ODS</t>
+  </si>
+  <si>
+    <t>(DFT) ODS Cliente B2B</t>
+  </si>
+  <si>
+    <t>ln.ods_car_cliente_b2b</t>
   </si>
 </sst>
 </file>
@@ -30942,7 +30975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
@@ -37372,10 +37405,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -40646,27 +40679,63 @@
       <c r="J126" s="17"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="48"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="49"/>
-      <c r="I127" s="49"/>
+      <c r="A127" s="48" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>3064</v>
+      </c>
+      <c r="H127" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127" s="49" t="s">
+        <v>3065</v>
+      </c>
       <c r="J127" s="17"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="48"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="49"/>
-      <c r="I128" s="49"/>
+      <c r="A128" s="48" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>3067</v>
+      </c>
+      <c r="H128" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="I128" s="49" t="s">
+        <v>3068</v>
+      </c>
       <c r="J128" s="17"/>
     </row>
     <row r="129" spans="1:10">

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" firstSheet="27" activeTab="33"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sequência Execução" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11140" uniqueCount="3069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11146" uniqueCount="3071">
   <si>
     <t>Processo de Carga LN</t>
   </si>
@@ -9254,6 +9254,12 @@
   </si>
   <si>
     <t>ln.ods_car_cliente_b2b</t>
+  </si>
+  <si>
+    <t>(DFT) Trp - Transporte</t>
+  </si>
+  <si>
+    <t>ln.ods_trp_transporte</t>
   </si>
 </sst>
 </file>
@@ -30973,11 +30979,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -34556,22 +34562,22 @@
         <v>0</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="C125" s="42"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
       <c r="F125" s="42" t="s">
-        <v>264</v>
+        <v>3053</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>265</v>
+        <v>3069</v>
       </c>
       <c r="H125" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>266</v>
+        <v>3070</v>
       </c>
       <c r="J125" s="43"/>
     </row>
@@ -34589,13 +34595,13 @@
         <v>264</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H126" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>2591</v>
+        <v>266</v>
       </c>
       <c r="J126" s="43"/>
     </row>
@@ -34613,13 +34619,13 @@
         <v>264</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H127" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>269</v>
+        <v>2591</v>
       </c>
       <c r="J127" s="43"/>
     </row>
@@ -34637,13 +34643,13 @@
         <v>264</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H128" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J128" s="43"/>
     </row>
@@ -34658,44 +34664,68 @@
       <c r="D129" s="42"/>
       <c r="E129" s="42"/>
       <c r="F129" s="42" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G129" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H129" s="42" t="s">
         <v>213</v>
       </c>
       <c r="I129" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J129" s="43"/>
+    </row>
+    <row r="130" spans="1:10" s="44" customFormat="1">
+      <c r="A130" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="42"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="H130" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I130" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="J129" s="43" t="s">
+      <c r="J130" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:10">
+      <c r="A131" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B131" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G131" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H130" s="8" t="s">
+      <c r="H131" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I130" s="8" t="s">
+      <c r="I131" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="J130" s="10"/>
+      <c r="J131" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -37405,10 +37435,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
+++ b/Documentação/Controle_Tabelas_e_Execucao/NOVA-Controle_tabelas.xlsx
@@ -43,6 +43,7 @@
     <sheet name="Demais" sheetId="40" r:id="rId34"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
